--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C885A2A2-B20F-4A7E-AC66-39CC62CDDFB2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Price Change Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Change Summary Report'!$A$8:$N$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Change Summary Report'!$A$8:$M$190</definedName>
     <definedName name="DF_NAVPANEL_13" localSheetId="0">#REF!</definedName>
     <definedName name="DF_NAVPANEL_18" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Price Change Summary Report'!$8:$8</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="152">
   <si>
     <t>Price Change Summary Report</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>BENEDIKTINER WEISS</t>
+  </si>
+  <si>
+    <t>B/C/TC</t>
   </si>
 </sst>
 </file>
@@ -1065,10 +1068,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N190"/>
+  <dimension ref="A1:M190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -1083,18 +1086,16 @@
     <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.453125" style="4" customWidth="1"/>
     <col min="11" max="11" width="20" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8" style="1"/>
-    <col min="14" max="14" width="50.7265625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8" style="1"/>
+    <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="21">
+    <row r="2" spans="1:13" ht="21">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1109,7 +1110,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="14.5">
+    <row r="3" spans="1:13" ht="14.5">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1124,7 +1125,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:14" ht="14.5">
+    <row r="4" spans="1:13" ht="14.5">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1139,7 +1140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="14.5">
+    <row r="5" spans="1:13" ht="14.5">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1152,7 +1153,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:14" ht="14.5">
+    <row r="6" spans="1:13" ht="14.5">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1165,13 +1166,13 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="31">
+    <row r="8" spans="1:13" ht="31">
       <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
@@ -1205,8 +1206,11 @@
       <c r="K8" s="21" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.5">
+      <c r="L8" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.5">
       <c r="A9" s="14">
         <v>1065365</v>
       </c>
@@ -1248,12 +1252,8 @@
         <f t="shared" ref="M9:M40" si="1">IF(K9&gt;0,"+","-")</f>
         <v>-</v>
       </c>
-      <c r="N9" s="1" t="str">
-        <f t="shared" ref="N9:N40" si="2">PROPER($D9)&amp;" "&amp;$H9&amp;$L9&amp;" "&amp;$M9&amp;"$"&amp;ABS($K9)&amp;" to $"&amp;$J9</f>
-        <v>Steam Whistle 48B -$10 to $85.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.5">
+    </row>
+    <row r="10" spans="1:13" ht="15.5">
       <c r="A10" s="14">
         <v>1129130</v>
       </c>
@@ -1295,12 +1295,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Crest Super 24TC -$8.85 to $74.82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.5">
+    </row>
+    <row r="11" spans="1:13" ht="15.5">
       <c r="A11" s="14">
         <v>2042611</v>
       </c>
@@ -1342,12 +1338,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Colt 45 24TC -$8.07 to $77.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.5">
+    </row>
+    <row r="12" spans="1:13" ht="15.5">
       <c r="A12" s="14">
         <v>3353211</v>
       </c>
@@ -1389,12 +1381,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Beaus Lug Lite Lager 48C -$8 to $71.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.5">
+    </row>
+    <row r="13" spans="1:13" ht="15.5">
       <c r="A13" s="14">
         <v>2503211</v>
       </c>
@@ -1436,12 +1424,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Muskoka Tread Light 48C -$8 to $78.99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.5">
+    </row>
+    <row r="14" spans="1:13" ht="15.5">
       <c r="A14" s="14">
         <v>1143013</v>
       </c>
@@ -1483,12 +1467,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Heineken Nv 24B -$6.2 to $54.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.5">
+    </row>
+    <row r="15" spans="1:13" ht="15.5">
       <c r="A15" s="14">
         <v>3891013</v>
       </c>
@@ -1530,12 +1510,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Heineken Silver 24B -$6.2 to $54.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.5">
+    </row>
+    <row r="16" spans="1:13" ht="15.5">
       <c r="A16" s="14">
         <v>1617224</v>
       </c>
@@ -1577,12 +1553,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N16" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>James Ready 5.5 60C -$6 to $84.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.5">
+    </row>
+    <row r="17" spans="1:13" ht="15.5">
       <c r="A17" s="14">
         <v>1035172</v>
       </c>
@@ -1624,12 +1596,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Budweiser 30C -$5.5 to $45.99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.5">
+    </row>
+    <row r="18" spans="1:13" ht="15.5">
       <c r="A18" s="14">
         <v>3891013</v>
       </c>
@@ -1671,12 +1639,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Heineken Silver 24B -$5 to $44.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.5">
+    </row>
+    <row r="19" spans="1:13" ht="15.5">
       <c r="A19" s="14">
         <v>1465033</v>
       </c>
@@ -1718,12 +1682,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Creemore Lager 24C -$5 to $42.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.5">
+    </row>
+    <row r="20" spans="1:13" ht="15.5">
       <c r="A20" s="14">
         <v>3583348</v>
       </c>
@@ -1765,12 +1725,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Faxe 10 Extra 24TC -$5 to $80.76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.5">
+    </row>
+    <row r="21" spans="1:13" ht="15.5">
       <c r="A21" s="14">
         <v>3582348</v>
       </c>
@@ -1812,12 +1768,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N21" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Faxe Premium Lager 24TC -$5 to $45.35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.5">
+    </row>
+    <row r="22" spans="1:13" ht="15.5">
       <c r="A22" s="14">
         <v>1504172</v>
       </c>
@@ -1859,12 +1811,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N22" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Sleeman Clear 2.0 30C -$5 to $44.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.5">
+    </row>
+    <row r="23" spans="1:13" ht="15.5">
       <c r="A23" s="14">
         <v>2341172</v>
       </c>
@@ -1906,12 +1854,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N23" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Coors Original 30C -$4.5 to $48.99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.5">
+    </row>
+    <row r="24" spans="1:13" ht="15.5">
       <c r="A24" s="14">
         <v>3353033</v>
       </c>
@@ -1953,12 +1897,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N24" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Beaus Lug Lite Lager 24C -$4 to $38.99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.5">
+    </row>
+    <row r="25" spans="1:13" ht="15.5">
       <c r="A25" s="14">
         <v>3879042</v>
       </c>
@@ -2000,12 +1940,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N25" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Gone Fishin Light 12TC -$4 to $26.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.5">
+    </row>
+    <row r="26" spans="1:13" ht="15.5">
       <c r="A26" s="14">
         <v>3154042</v>
       </c>
@@ -2047,12 +1983,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N26" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Longhorn Lager 12TC -$4 to $27.99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.5">
+    </row>
+    <row r="27" spans="1:13" ht="15.5">
       <c r="A27" s="14">
         <v>3715042</v>
       </c>
@@ -2094,12 +2026,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N27" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Rough Stock Ipa 12TC -$4 to $30.99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.5">
+    </row>
+    <row r="28" spans="1:13" ht="15.5">
       <c r="A28" s="14">
         <v>1090033</v>
       </c>
@@ -2141,12 +2069,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Mill St Organic Lag 24C -$4 to $44.99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.5">
+    </row>
+    <row r="29" spans="1:13" ht="15.5">
       <c r="A29" s="14">
         <v>1060100</v>
       </c>
@@ -2188,12 +2112,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N29" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Coors Light 28B -$4 to $39.49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.5">
+    </row>
+    <row r="30" spans="1:13" ht="15.5">
       <c r="A30" s="14">
         <v>1879055</v>
       </c>
@@ -2235,12 +2155,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Miller High Life 24B -$4 to $35.99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.5">
+    </row>
+    <row r="31" spans="1:13" ht="15.5">
       <c r="A31" s="14">
         <v>1873005</v>
       </c>
@@ -2282,12 +2198,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N31" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Miller Lite 24B -$4 to $38.99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.5">
+    </row>
+    <row r="32" spans="1:13" ht="15.5">
       <c r="A32" s="14">
         <v>1599033</v>
       </c>
@@ -2329,12 +2241,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Muskoka Detour 24C -$4 to $47.49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="15.5">
+    </row>
+    <row r="33" spans="1:13" ht="15.5">
       <c r="A33" s="14">
         <v>1584041</v>
       </c>
@@ -2376,12 +2284,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Headstock Ipa 24TC -$4 to $61.88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="15.5">
+    </row>
+    <row r="34" spans="1:13" ht="15.5">
       <c r="A34" s="14">
         <v>1584041</v>
       </c>
@@ -2423,12 +2327,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Headstock Ipa 24TC -$4 to $61.88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15.5">
+    </row>
+    <row r="35" spans="1:13" ht="15.5">
       <c r="A35" s="14">
         <v>2022041</v>
       </c>
@@ -2470,12 +2370,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Wicked Awesome Ipa 24TC -$4 to $61.88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15.5">
+    </row>
+    <row r="36" spans="1:13" ht="15.5">
       <c r="A36" s="14">
         <v>2022041</v>
       </c>
@@ -2517,12 +2413,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N36" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Wicked Awesome Ipa 24TC -$4 to $61.88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="15.5">
+    </row>
+    <row r="37" spans="1:13" ht="15.5">
       <c r="A37" s="14">
         <v>1065356</v>
       </c>
@@ -2564,12 +2456,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N37" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Steam Whistle 24B -$4 to $48.49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="15.5">
+    </row>
+    <row r="38" spans="1:13" ht="15.5">
       <c r="A38" s="14">
         <v>1448041</v>
       </c>
@@ -2611,12 +2499,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Helles Lager 24TC -$4 to $58.99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="15.5">
+    </row>
+    <row r="39" spans="1:13" ht="15.5">
       <c r="A39" s="14">
         <v>2042051</v>
       </c>
@@ -2658,12 +2542,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N39" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Colt 45 12TC -$3.64 to $38.97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="15.5">
+    </row>
+    <row r="40" spans="1:13" ht="15.5">
       <c r="A40" s="14">
         <v>1319055</v>
       </c>
@@ -2705,12 +2585,8 @@
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="N40" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>Modelo Especial Impt 24B -$3 to $50.99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15.5">
+    </row>
+    <row r="41" spans="1:13" ht="15.5">
       <c r="A41" s="14">
         <v>1045172</v>
       </c>
@@ -2745,19 +2621,15 @@
         <v>-3</v>
       </c>
       <c r="L41" s="1" t="str">
-        <f t="shared" ref="L41:L72" si="3">IF(F41&gt;355,"TC",LEFT(E41,1))</f>
+        <f t="shared" ref="L41:L72" si="2">IF(F41&gt;355,"TC",LEFT(E41,1))</f>
         <v>C</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" ref="M41:M72" si="4">IF(K41&gt;0,"+","-")</f>
+        <f t="shared" ref="M41:M72" si="3">IF(K41&gt;0,"+","-")</f>
         <v>-</v>
       </c>
-      <c r="N41" s="1" t="str">
-        <f t="shared" ref="N41:N72" si="5">PROPER($D41)&amp;" "&amp;$H41&amp;$L41&amp;" "&amp;$M41&amp;"$"&amp;ABS($K41)&amp;" to $"&amp;$J41</f>
-        <v>Busch Lager 30C -$3 to $44.99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15.5">
+    </row>
+    <row r="42" spans="1:13" ht="15.5">
       <c r="A42" s="14">
         <v>1026100</v>
       </c>
@@ -2792,19 +2664,15 @@
         <v>-3</v>
       </c>
       <c r="L42" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="M42" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="M42" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N42" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Keiths 28B -$3 to $42.99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="15.5">
+    </row>
+    <row r="43" spans="1:13" ht="15.5">
       <c r="A43" s="14">
         <v>1030172</v>
       </c>
@@ -2839,19 +2707,15 @@
         <v>-3</v>
       </c>
       <c r="L43" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M43" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M43" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N43" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Michelob Ultra 30C -$3 to $49.49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="15.5">
+    </row>
+    <row r="44" spans="1:13" ht="15.5">
       <c r="A44" s="14">
         <v>1056172</v>
       </c>
@@ -2886,19 +2750,15 @@
         <v>-3</v>
       </c>
       <c r="L44" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M44" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M44" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N44" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Molson Canadian 30C -$3 to $47.99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="15.5">
+    </row>
+    <row r="45" spans="1:13" ht="15.5">
       <c r="A45" s="14">
         <v>1628172</v>
       </c>
@@ -2933,19 +2793,15 @@
         <v>-3</v>
       </c>
       <c r="L45" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M45" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M45" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N45" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Moosehead Lager 30C -$3 to $46.99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="15.5">
+    </row>
+    <row r="46" spans="1:13" ht="15.5">
       <c r="A46" s="14">
         <v>1490005</v>
       </c>
@@ -2980,19 +2836,15 @@
         <v>-3</v>
       </c>
       <c r="L46" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="M46" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N46" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Sleeman Original Lgr 24B -$3 to $37.99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="15.5">
+    </row>
+    <row r="47" spans="1:13" ht="15.5">
       <c r="A47" s="14">
         <v>3353031</v>
       </c>
@@ -3027,19 +2879,15 @@
         <v>-2</v>
       </c>
       <c r="L47" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M47" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M47" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N47" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Beaus Lug Lite Lager 12C -$2 to $22.49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="15.5">
+    </row>
+    <row r="48" spans="1:13" ht="15.5">
       <c r="A48" s="14">
         <v>3888033</v>
       </c>
@@ -3074,19 +2922,15 @@
         <v>-2</v>
       </c>
       <c r="L48" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M48" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M48" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N48" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Red Baron Light 24C -$2 to $33.04</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="15.5">
+    </row>
+    <row r="49" spans="1:13" ht="15.5">
       <c r="A49" s="14">
         <v>1041042</v>
       </c>
@@ -3121,19 +2965,15 @@
         <v>-2</v>
       </c>
       <c r="L49" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M49" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M49" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N49" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Bud Light 12TC -$2 to $25.99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="15.5">
+    </row>
+    <row r="50" spans="1:13" ht="15.5">
       <c r="A50" s="14">
         <v>2598042</v>
       </c>
@@ -3168,19 +3008,15 @@
         <v>-2</v>
       </c>
       <c r="L50" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M50" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M50" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N50" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Stella Artois 12TC -$2 to $32.49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="15.5">
+    </row>
+    <row r="51" spans="1:13" ht="15.5">
       <c r="A51" s="14">
         <v>3666031</v>
       </c>
@@ -3215,19 +3051,15 @@
         <v>-2</v>
       </c>
       <c r="L51" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M51" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M51" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N51" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Arizona H&amp;H Mixer 12C -$2 to $24.99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="15.5">
+    </row>
+    <row r="52" spans="1:13" ht="15.5">
       <c r="A52" s="14">
         <v>3654427</v>
       </c>
@@ -3262,19 +3094,15 @@
         <v>-2</v>
       </c>
       <c r="L52" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M52" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N52" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Coors Selt Slush Flv 12C -$2 to $23.99</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="15.5">
+    </row>
+    <row r="53" spans="1:13" ht="15.5">
       <c r="A53" s="14">
         <v>1056042</v>
       </c>
@@ -3309,19 +3137,15 @@
         <v>-2</v>
       </c>
       <c r="L53" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M53" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N53" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Molson Canadian 12TC -$2 to $25.99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.5">
+    </row>
+    <row r="54" spans="1:13" ht="15.5">
       <c r="A54" s="14">
         <v>3668427</v>
       </c>
@@ -3356,19 +3180,15 @@
         <v>-2</v>
       </c>
       <c r="L54" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M54" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N54" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Vizzy Selt Vp V2 12C -$2 to $24.99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="15.5">
+    </row>
+    <row r="55" spans="1:13" ht="15.5">
       <c r="A55" s="14">
         <v>1595031</v>
       </c>
@@ -3403,19 +3223,15 @@
         <v>-2</v>
       </c>
       <c r="L55" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M55" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M55" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N55" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Mad Tom Ipa 12C -$2 to $27.59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="15.5">
+    </row>
+    <row r="56" spans="1:13" ht="15.5">
       <c r="A56" s="14">
         <v>1594031</v>
       </c>
@@ -3450,19 +3266,15 @@
         <v>-2</v>
       </c>
       <c r="L56" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M56" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M56" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N56" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Muskoka Cream Ale 12C -$2 to $27.09</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.5">
+    </row>
+    <row r="57" spans="1:13" ht="15.5">
       <c r="A57" s="14">
         <v>3962031</v>
       </c>
@@ -3497,19 +3309,15 @@
         <v>-2</v>
       </c>
       <c r="L57" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M57" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M57" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N57" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Muskoka Venture Pack 12C -$2 to $25.19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.5">
+    </row>
+    <row r="58" spans="1:13" ht="15.5">
       <c r="A58" s="14">
         <v>1491223</v>
       </c>
@@ -3544,19 +3352,15 @@
         <v>-1.81</v>
       </c>
       <c r="L58" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M58" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M58" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N58" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Old Milwaukee Ice 18TC -$1.81 to $32.97</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="15.5">
+    </row>
+    <row r="59" spans="1:13" ht="15.5">
       <c r="A59" s="14">
         <v>1491042</v>
       </c>
@@ -3591,19 +3395,15 @@
         <v>-1.51</v>
       </c>
       <c r="L59" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M59" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M59" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Old Milwaukee Ice 12TC -$1.51 to $21.98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15.5">
+    </row>
+    <row r="60" spans="1:13" ht="15.5">
       <c r="A60" s="14">
         <v>3410031</v>
       </c>
@@ -3638,19 +3438,15 @@
         <v>-1.5</v>
       </c>
       <c r="L60" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M60" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M60" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Collective Lager 12C -$1.5 to $23.49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="15.5">
+    </row>
+    <row r="61" spans="1:13" ht="15.5">
       <c r="A61" s="14">
         <v>2042291</v>
       </c>
@@ -3685,19 +3481,15 @@
         <v>-1.35</v>
       </c>
       <c r="L61" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M61" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M61" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N61" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Colt 45 4TC -$1.35 to $12.99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="15.5">
+    </row>
+    <row r="62" spans="1:13" ht="15.5">
       <c r="A62" s="14">
         <v>1056041</v>
       </c>
@@ -3732,19 +3524,15 @@
         <v>-1.1000000000000001</v>
       </c>
       <c r="L62" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M62" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M62" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N62" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Molson Canadian 24TC -$1.1 to $51.89</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="15.5">
+    </row>
+    <row r="63" spans="1:13" ht="15.5">
       <c r="A63" s="14">
         <v>1491041</v>
       </c>
@@ -3779,19 +3567,15 @@
         <v>-1.03</v>
       </c>
       <c r="L63" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M63" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M63" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N63" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Old Milwaukee Ice 24TC -$1.03 to $43.96</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="15.5">
+    </row>
+    <row r="64" spans="1:13" ht="15.5">
       <c r="A64" s="14">
         <v>1525038</v>
       </c>
@@ -3826,19 +3610,15 @@
         <v>-1</v>
       </c>
       <c r="L64" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M64" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M64" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N64" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Collective Ransack 6TC -$1 to $18.99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="15.5">
+    </row>
+    <row r="65" spans="1:13" ht="15.5">
       <c r="A65" s="14">
         <v>3879038</v>
       </c>
@@ -3873,19 +3653,15 @@
         <v>-1</v>
       </c>
       <c r="L65" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M65" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M65" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N65" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Gone Fishin Light 6TC -$1 to $14.99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="15.5">
+    </row>
+    <row r="66" spans="1:13" ht="15.5">
       <c r="A66" s="14">
         <v>3154038</v>
       </c>
@@ -3920,19 +3696,15 @@
         <v>-1</v>
       </c>
       <c r="L66" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M66" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M66" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N66" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Longhorn Lager 6TC -$1 to $15.99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="15.5">
+    </row>
+    <row r="67" spans="1:13" ht="15.5">
       <c r="A67" s="14">
         <v>3715038</v>
       </c>
@@ -3967,19 +3739,15 @@
         <v>-1</v>
       </c>
       <c r="L67" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M67" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M67" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N67" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Rough Stock Ipa 6TC -$1 to $16.99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="15.5">
+    </row>
+    <row r="68" spans="1:13" ht="15.5">
       <c r="A68" s="14">
         <v>3775038</v>
       </c>
@@ -4014,19 +3782,15 @@
         <v>-1</v>
       </c>
       <c r="L68" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M68" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M68" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N68" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Creemore Light Lager 6TC -$1 to $16.69</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="15.5">
+    </row>
+    <row r="69" spans="1:13" ht="15.5">
       <c r="A69" s="14">
         <v>1628031</v>
       </c>
@@ -4061,19 +3825,15 @@
         <v>-1</v>
       </c>
       <c r="L69" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="M69" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>C</v>
-      </c>
-      <c r="M69" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N69" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Moosehead Lager 12C -$1 to $22.89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="15.5">
+    </row>
+    <row r="70" spans="1:13" ht="15.5">
       <c r="A70" s="14">
         <v>1491038</v>
       </c>
@@ -4108,19 +3868,15 @@
         <v>-1</v>
       </c>
       <c r="L70" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M70" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M70" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N70" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Old Milwaukee Ice 6TC -$1 to $10.99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="15.5">
+    </row>
+    <row r="71" spans="1:13" ht="15.5">
       <c r="A71" s="14">
         <v>1448038</v>
       </c>
@@ -4155,19 +3911,15 @@
         <v>-1</v>
       </c>
       <c r="L71" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M71" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M71" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N71" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Helles Lager 6TC -$1 to $16.49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="15.5">
+    </row>
+    <row r="72" spans="1:13" ht="15.5">
       <c r="A72" s="14">
         <v>2042290</v>
       </c>
@@ -4202,19 +3954,15 @@
         <v>-0.85</v>
       </c>
       <c r="L72" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>TC</v>
+      </c>
+      <c r="M72" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>TC</v>
-      </c>
-      <c r="M72" s="1" t="str">
-        <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="N72" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Colt 45 2TC -$0.85 to $6.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="15.5">
+    </row>
+    <row r="73" spans="1:13" ht="15.5">
       <c r="A73" s="14">
         <v>3537296</v>
       </c>
@@ -4249,19 +3997,15 @@
         <v>-0.75</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f t="shared" ref="L73:L104" si="6">IF(F73&gt;355,"TC",LEFT(E73,1))</f>
+        <f t="shared" ref="L73:L104" si="4">IF(F73&gt;355,"TC",LEFT(E73,1))</f>
         <v>C</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f t="shared" ref="M73:M104" si="7">IF(K73&gt;0,"+","-")</f>
+        <f t="shared" ref="M73:M104" si="5">IF(K73&gt;0,"+","-")</f>
         <v>-</v>
       </c>
-      <c r="N73" s="1" t="str">
-        <f t="shared" ref="N73:N104" si="8">PROPER($D73)&amp;" "&amp;$H73&amp;$L73&amp;" "&amp;$M73&amp;"$"&amp;ABS($K73)&amp;" to $"&amp;$J73</f>
-        <v>Na Hazy Pale Ale 4C -$0.75 to $7.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="15.5">
+    </row>
+    <row r="74" spans="1:13" ht="15.5">
       <c r="A74" s="14">
         <v>2042024</v>
       </c>
@@ -4296,19 +4040,15 @@
         <v>-0.51</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>TC</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-</v>
       </c>
-      <c r="N74" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Colt 45 1TC -$0.51 to $3.25</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="15.5">
+    </row>
+    <row r="75" spans="1:13" ht="15.5">
       <c r="A75" s="14">
         <v>2084100</v>
       </c>
@@ -4343,2839 +4083,2595 @@
         <v>-0.5</v>
       </c>
       <c r="L75" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="M75" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15.5">
+      <c r="A76" s="14">
+        <v>2085100</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="14">
+        <v>341</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="14">
+        <v>28</v>
+      </c>
+      <c r="I76" s="16">
+        <v>43.99</v>
+      </c>
+      <c r="J76" s="16">
+        <v>43.49</v>
+      </c>
+      <c r="K76" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="L76" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="M76" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15.5">
+      <c r="A77" s="14">
+        <v>2597355</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E77" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="14">
+        <v>330</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H77" s="14">
+        <v>24</v>
+      </c>
+      <c r="I77" s="16">
+        <v>50.49</v>
+      </c>
+      <c r="J77" s="16">
+        <v>49.99</v>
+      </c>
+      <c r="K77" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="L77" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="M77" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15.5">
+      <c r="A78" s="14">
+        <v>1629042</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="14">
+        <v>473</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H78" s="14">
+        <v>12</v>
+      </c>
+      <c r="I78" s="16">
+        <v>28.49</v>
+      </c>
+      <c r="J78" s="16">
+        <v>27.99</v>
+      </c>
+      <c r="K78" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="L78" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M78" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15.5">
+      <c r="A79" s="14">
+        <v>1628042</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E79" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F79" s="14">
+        <v>473</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H79" s="14">
+        <v>12</v>
+      </c>
+      <c r="I79" s="16">
+        <v>28.49</v>
+      </c>
+      <c r="J79" s="16">
+        <v>27.99</v>
+      </c>
+      <c r="K79" s="16">
+        <v>-0.5</v>
+      </c>
+      <c r="L79" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M79" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15.5">
+      <c r="A80" s="14">
+        <v>1041031</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E80" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F80" s="14">
+        <v>355</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="14">
+        <v>12</v>
+      </c>
+      <c r="I80" s="16">
+        <v>24.29</v>
+      </c>
+      <c r="J80" s="16">
+        <v>23.99</v>
+      </c>
+      <c r="K80" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="L80" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="M80" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15.5">
+      <c r="A81" s="14">
+        <v>1035031</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F81" s="14">
+        <v>355</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H81" s="14">
+        <v>12</v>
+      </c>
+      <c r="I81" s="16">
+        <v>24.29</v>
+      </c>
+      <c r="J81" s="16">
+        <v>23.99</v>
+      </c>
+      <c r="K81" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="L81" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="M81" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15.5">
+      <c r="A82" s="14">
+        <v>2598012</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="14">
+        <v>330</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" s="14">
+        <v>12</v>
+      </c>
+      <c r="I82" s="16">
+        <v>28.49</v>
+      </c>
+      <c r="J82" s="16">
+        <v>28.19</v>
+      </c>
+      <c r="K82" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="L82" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="M82" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15.5">
+      <c r="A83" s="14">
+        <v>1448004</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="14">
+        <v>473</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H83" s="14">
+        <v>1</v>
+      </c>
+      <c r="I83" s="16">
+        <v>3.15</v>
+      </c>
+      <c r="J83" s="16">
+        <v>2.85</v>
+      </c>
+      <c r="K83" s="16">
+        <v>-0.3</v>
+      </c>
+      <c r="L83" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M83" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="15.5">
+      <c r="A84" s="14">
+        <v>1119063</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F84" s="14">
+        <v>500</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H84" s="14">
+        <v>1</v>
+      </c>
+      <c r="I84" s="16">
+        <v>2.83</v>
+      </c>
+      <c r="J84" s="16">
+        <v>2.57</v>
+      </c>
+      <c r="K84" s="16">
+        <v>-0.26</v>
+      </c>
+      <c r="L84" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M84" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="15.5">
+      <c r="A85" s="14">
+        <v>2662063</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E85" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" s="14">
+        <v>500</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" s="14">
+        <v>1</v>
+      </c>
+      <c r="I85" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J85" s="16">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="K85" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="L85" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M85" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="15.5">
+      <c r="A86" s="14">
+        <v>1161063</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F86" s="14">
+        <v>500</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H86" s="14">
+        <v>1</v>
+      </c>
+      <c r="I86" s="16">
+        <v>3.01</v>
+      </c>
+      <c r="J86" s="16">
+        <v>2.76</v>
+      </c>
+      <c r="K86" s="16">
+        <v>-0.25</v>
+      </c>
+      <c r="L86" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M86" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="15.5">
+      <c r="A87" s="14">
+        <v>1632038</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F87" s="14">
+        <v>473</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H87" s="14">
+        <v>6</v>
+      </c>
+      <c r="I87" s="16">
+        <v>15.19</v>
+      </c>
+      <c r="J87" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="K87" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="L87" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M87" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="15.5">
+      <c r="A88" s="14">
+        <v>1629038</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E88" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F88" s="14">
+        <v>473</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" s="14">
+        <v>6</v>
+      </c>
+      <c r="I88" s="16">
+        <v>15.19</v>
+      </c>
+      <c r="J88" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="K88" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="L88" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M88" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="15.5">
+      <c r="A89" s="14">
+        <v>1628038</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E89" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F89" s="14">
+        <v>473</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H89" s="14">
+        <v>6</v>
+      </c>
+      <c r="I89" s="16">
+        <v>15.19</v>
+      </c>
+      <c r="J89" s="16">
+        <v>14.99</v>
+      </c>
+      <c r="K89" s="16">
+        <v>-0.2</v>
+      </c>
+      <c r="L89" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M89" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="15.5">
+      <c r="A90" s="14">
+        <v>1219063</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E90" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F90" s="14">
+        <v>500</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H90" s="14">
+        <v>1</v>
+      </c>
+      <c r="I90" s="16">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="J90" s="16">
+        <v>2.34</v>
+      </c>
+      <c r="K90" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="L90" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M90" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="15.5">
+      <c r="A91" s="14">
+        <v>3452004</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="14">
+        <v>473</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H91" s="14">
+        <v>1</v>
+      </c>
+      <c r="I91" s="16">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J91" s="16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K91" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="L91" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M91" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="15.5">
+      <c r="A92" s="14">
+        <v>1620004</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E92" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F92" s="14">
+        <v>473</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H92" s="14">
+        <v>1</v>
+      </c>
+      <c r="I92" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="J92" s="16">
+        <v>2.99</v>
+      </c>
+      <c r="K92" s="16">
+        <v>-0.06</v>
+      </c>
+      <c r="L92" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M92" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="15.5">
+      <c r="A93" s="14">
+        <v>1194063</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E93" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F93" s="14">
+        <v>500</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H93" s="14">
+        <v>1</v>
+      </c>
+      <c r="I93" s="16">
+        <v>2.39</v>
+      </c>
+      <c r="J93" s="16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="K93" s="16">
+        <v>0.04</v>
+      </c>
+      <c r="L93" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M93" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="15.5">
+      <c r="A94" s="14">
+        <v>3154004</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F94" s="14">
+        <v>473</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H94" s="14">
+        <v>1</v>
+      </c>
+      <c r="I94" s="16">
+        <v>2.79</v>
+      </c>
+      <c r="J94" s="16">
+        <v>2.89</v>
+      </c>
+      <c r="K94" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L94" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M94" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="15.5">
+      <c r="A95" s="14">
+        <v>1624004</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F95" s="14">
+        <v>473</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H95" s="14">
+        <v>1</v>
+      </c>
+      <c r="I95" s="16">
+        <v>2.59</v>
+      </c>
+      <c r="J95" s="16">
+        <v>2.69</v>
+      </c>
+      <c r="K95" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="L95" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M95" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="15.5">
+      <c r="A96" s="14">
+        <v>2975004</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F96" s="14">
+        <v>473</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H96" s="14">
+        <v>1</v>
+      </c>
+      <c r="I96" s="16">
+        <v>3.14</v>
+      </c>
+      <c r="J96" s="16">
+        <v>3.32</v>
+      </c>
+      <c r="K96" s="16">
+        <v>0.18</v>
+      </c>
+      <c r="L96" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M96" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="15.5">
+      <c r="A97" s="14">
+        <v>3715004</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F97" s="14">
+        <v>473</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H97" s="14">
+        <v>1</v>
+      </c>
+      <c r="I97" s="16">
+        <v>2.99</v>
+      </c>
+      <c r="J97" s="16">
+        <v>3.19</v>
+      </c>
+      <c r="K97" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="L97" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M97" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="15.5">
+      <c r="A98" s="14">
+        <v>1584004</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F98" s="14">
+        <v>473</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H98" s="14">
+        <v>1</v>
+      </c>
+      <c r="I98" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="J98" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="K98" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L98" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M98" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="15.5">
+      <c r="A99" s="14">
+        <v>1584004</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E99" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F99" s="14">
+        <v>473</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="14">
+        <v>1</v>
+      </c>
+      <c r="I99" s="16">
+        <v>3.05</v>
+      </c>
+      <c r="J99" s="16">
+        <v>3.3</v>
+      </c>
+      <c r="K99" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="L99" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M99" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="15.5">
+      <c r="A100" s="14">
+        <v>1617173</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F100" s="14">
+        <v>355</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H100" s="14">
+        <v>15</v>
+      </c>
+      <c r="I100" s="16">
+        <v>25.99</v>
+      </c>
+      <c r="J100" s="16">
+        <v>26.49</v>
+      </c>
+      <c r="K100" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L100" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="M100" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="15.5">
+      <c r="A101" s="14">
+        <v>1631173</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F101" s="14">
+        <v>355</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H101" s="14">
+        <v>15</v>
+      </c>
+      <c r="I101" s="16">
+        <v>25.99</v>
+      </c>
+      <c r="J101" s="16">
+        <v>26.49</v>
+      </c>
+      <c r="K101" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>C</v>
+      </c>
+      <c r="M101" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="15.5">
+      <c r="A102" s="14">
+        <v>1065002</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="14">
+        <v>341</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="14">
+        <v>12</v>
+      </c>
+      <c r="I102" s="16">
+        <v>27.99</v>
+      </c>
+      <c r="J102" s="16">
+        <v>28.49</v>
+      </c>
+      <c r="K102" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="L102" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>B</v>
+      </c>
+      <c r="M102" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="15.5">
+      <c r="A103" s="14">
+        <v>1709306</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E103" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="14">
+        <v>473</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="14">
+        <v>6</v>
+      </c>
+      <c r="I103" s="16">
+        <v>17.59</v>
+      </c>
+      <c r="J103" s="16">
+        <v>18.29</v>
+      </c>
+      <c r="K103" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="L103" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M103" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="15.5">
+      <c r="A104" s="14">
+        <v>1065306</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F104" s="14">
+        <v>473</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H104" s="14">
+        <v>6</v>
+      </c>
+      <c r="I104" s="16">
+        <v>17.59</v>
+      </c>
+      <c r="J104" s="16">
+        <v>18.29</v>
+      </c>
+      <c r="K104" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="L104" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>TC</v>
+      </c>
+      <c r="M104" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="15.5">
+      <c r="A105" s="14">
+        <v>1208130</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E105" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F105" s="14">
+        <v>500</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" s="14">
+        <v>24</v>
+      </c>
+      <c r="I105" s="16">
+        <v>53.58</v>
+      </c>
+      <c r="J105" s="16">
+        <v>54.47</v>
+      </c>
+      <c r="K105" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="L105" s="1" t="str">
+        <f t="shared" ref="L105:L136" si="6">IF(F105&gt;355,"TC",LEFT(E105,1))</f>
+        <v>TC</v>
+      </c>
+      <c r="M105" s="1" t="str">
+        <f t="shared" ref="M105:M136" si="7">IF(K105&gt;0,"+","-")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="15.5">
+      <c r="A106" s="14">
+        <v>1617172</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F106" s="14">
+        <v>355</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H106" s="14">
+        <v>30</v>
+      </c>
+      <c r="I106" s="16">
+        <v>43.49</v>
+      </c>
+      <c r="J106" s="16">
+        <v>44.49</v>
+      </c>
+      <c r="K106" s="16">
+        <v>1</v>
+      </c>
+      <c r="L106" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="M106" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" ht="15.5">
+      <c r="A107" s="14">
+        <v>3878038</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E107" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F107" s="14">
+        <v>473</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H107" s="14">
+        <v>6</v>
+      </c>
+      <c r="I107" s="16">
+        <v>17.89</v>
+      </c>
+      <c r="J107" s="16">
+        <v>18.89</v>
+      </c>
+      <c r="K107" s="16">
+        <v>1</v>
+      </c>
+      <c r="L107" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M107" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="15.5">
+      <c r="A108" s="14">
+        <v>3718038</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F108" s="14">
+        <v>473</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H108" s="14">
+        <v>6</v>
+      </c>
+      <c r="I108" s="16">
+        <v>17.89</v>
+      </c>
+      <c r="J108" s="16">
+        <v>18.89</v>
+      </c>
+      <c r="K108" s="16">
+        <v>1</v>
+      </c>
+      <c r="L108" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M108" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="15.5">
+      <c r="A109" s="14">
+        <v>2662128</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F109" s="14">
+        <v>500</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="14">
+        <v>4</v>
+      </c>
+      <c r="I109" s="16">
+        <v>8.56</v>
+      </c>
+      <c r="J109" s="16">
+        <v>9.56</v>
+      </c>
+      <c r="K109" s="16">
+        <v>1</v>
+      </c>
+      <c r="L109" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M109" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="15.5">
+      <c r="A110" s="14">
+        <v>3261128</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D110" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E110" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F110" s="14">
+        <v>500</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" s="14">
+        <v>4</v>
+      </c>
+      <c r="I110" s="16">
+        <v>9.49</v>
+      </c>
+      <c r="J110" s="16">
+        <v>10.49</v>
+      </c>
+      <c r="K110" s="16">
+        <v>1</v>
+      </c>
+      <c r="L110" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M110" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="15.5">
+      <c r="A111" s="14">
+        <v>1161128</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E111" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F111" s="14">
+        <v>500</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" s="14">
+        <v>4</v>
+      </c>
+      <c r="I111" s="16">
+        <v>10.68</v>
+      </c>
+      <c r="J111" s="16">
+        <v>11.68</v>
+      </c>
+      <c r="K111" s="16">
+        <v>1</v>
+      </c>
+      <c r="L111" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M111" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="15.5">
+      <c r="A112" s="14">
+        <v>1497038</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E112" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F112" s="14">
+        <v>473</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112" s="14">
+        <v>6</v>
+      </c>
+      <c r="I112" s="16">
+        <v>10.99</v>
+      </c>
+      <c r="J112" s="16">
+        <v>11.99</v>
+      </c>
+      <c r="K112" s="16">
+        <v>1</v>
+      </c>
+      <c r="L112" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M112" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="15.5">
+      <c r="A113" s="14">
+        <v>3849030</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E113" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F113" s="14">
+        <v>355</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H113" s="14">
+        <v>6</v>
+      </c>
+      <c r="I113" s="16">
+        <v>11.29</v>
+      </c>
+      <c r="J113" s="16">
+        <v>12.29</v>
+      </c>
+      <c r="K113" s="16">
+        <v>1</v>
+      </c>
+      <c r="L113" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="M113" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="15.5">
+      <c r="A114" s="14">
+        <v>1065033</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E114" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F114" s="14">
+        <v>355</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H114" s="14">
+        <v>24</v>
+      </c>
+      <c r="I114" s="16">
+        <v>50.99</v>
+      </c>
+      <c r="J114" s="16">
+        <v>51.99</v>
+      </c>
+      <c r="K114" s="16">
+        <v>1</v>
+      </c>
+      <c r="L114" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="M114" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="15.5">
+      <c r="A115" s="14">
+        <v>1167128</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E115" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F115" s="14">
+        <v>500</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" s="14">
+        <v>4</v>
+      </c>
+      <c r="I115" s="16">
+        <v>11.39</v>
+      </c>
+      <c r="J115" s="16">
+        <v>12.39</v>
+      </c>
+      <c r="K115" s="16">
+        <v>1</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M115" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="15.5">
+      <c r="A116" s="14">
+        <v>1497041</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E116" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F116" s="14">
+        <v>473</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="14">
+        <v>24</v>
+      </c>
+      <c r="I116" s="16">
+        <v>43.96</v>
+      </c>
+      <c r="J116" s="16">
+        <v>44.99</v>
+      </c>
+      <c r="K116" s="16">
+        <v>1.03</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M116" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="15.5">
+      <c r="A117" s="14">
+        <v>1060041</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F117" s="14">
+        <v>473</v>
+      </c>
+      <c r="G117" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="14">
+        <v>24</v>
+      </c>
+      <c r="I117" s="16">
+        <v>51.89</v>
+      </c>
+      <c r="J117" s="16">
+        <v>52.99</v>
+      </c>
+      <c r="K117" s="16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M117" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="15.5">
+      <c r="A118" s="14">
+        <v>1595038</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F118" s="14">
+        <v>473</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H118" s="14">
+        <v>6</v>
+      </c>
+      <c r="I118" s="16">
+        <v>18.14</v>
+      </c>
+      <c r="J118" s="16">
+        <v>19.39</v>
+      </c>
+      <c r="K118" s="16">
+        <v>1.25</v>
+      </c>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M118" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="15.5">
+      <c r="A119" s="14">
+        <v>1416038</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F119" s="14">
+        <v>473</v>
+      </c>
+      <c r="G119" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H119" s="14">
+        <v>6</v>
+      </c>
+      <c r="I119" s="16">
+        <v>13.49</v>
+      </c>
+      <c r="J119" s="16">
+        <v>14.84</v>
+      </c>
+      <c r="K119" s="16">
+        <v>1.35</v>
+      </c>
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M119" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="15.5">
+      <c r="A120" s="14">
+        <v>1425038</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="E120" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F120" s="14">
+        <v>473</v>
+      </c>
+      <c r="G120" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H120" s="14">
+        <v>6</v>
+      </c>
+      <c r="I120" s="16">
+        <v>9.99</v>
+      </c>
+      <c r="J120" s="16">
+        <v>11.39</v>
+      </c>
+      <c r="K120" s="16">
+        <v>1.4</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M120" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="15.5">
+      <c r="A121" s="14">
+        <v>1035042</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E121" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F121" s="14">
+        <v>473</v>
+      </c>
+      <c r="G121" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" s="14">
+        <v>12</v>
+      </c>
+      <c r="I121" s="16">
+        <v>26.49</v>
+      </c>
+      <c r="J121" s="16">
+        <v>27.99</v>
+      </c>
+      <c r="K121" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="L121" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M121" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="15.5">
+      <c r="A122" s="14">
+        <v>2597354</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="14">
+        <v>330</v>
+      </c>
+      <c r="G122" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H122" s="14">
+        <v>12</v>
+      </c>
+      <c r="I122" s="16">
+        <v>26.69</v>
+      </c>
+      <c r="J122" s="16">
+        <v>28.19</v>
+      </c>
+      <c r="K122" s="16">
+        <v>1.5</v>
+      </c>
+      <c r="L122" s="1" t="str">
         <f t="shared" si="6"/>
         <v>B</v>
       </c>
-      <c r="M75" s="1" t="str">
+      <c r="M122" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N75" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Bud Light 28B -$0.5 to $43.49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="15.5">
-      <c r="A76" s="14">
-        <v>2085100</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="15" t="s">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="15.5">
+      <c r="A123" s="14">
+        <v>1497042</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E123" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F123" s="14">
+        <v>473</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H123" s="14">
+        <v>12</v>
+      </c>
+      <c r="I123" s="16">
+        <v>21.98</v>
+      </c>
+      <c r="J123" s="16">
+        <v>23.49</v>
+      </c>
+      <c r="K123" s="16">
+        <v>1.51</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M123" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="15.5">
+      <c r="A124" s="14">
+        <v>3879156</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E124" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F124" s="14">
+        <v>473</v>
+      </c>
+      <c r="G124" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124" s="14">
+        <v>8</v>
+      </c>
+      <c r="I124" s="16">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="J124" s="16">
+        <v>20.99</v>
+      </c>
+      <c r="K124" s="16">
+        <v>2</v>
+      </c>
+      <c r="L124" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M124" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="15.5">
+      <c r="A125" s="14">
+        <v>3154156</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D125" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F125" s="14">
+        <v>473</v>
+      </c>
+      <c r="G125" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H125" s="14">
+        <v>8</v>
+      </c>
+      <c r="I125" s="16">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="J125" s="16">
+        <v>21.99</v>
+      </c>
+      <c r="K125" s="16">
+        <v>2</v>
+      </c>
+      <c r="L125" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M125" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="15.5">
+      <c r="A126" s="14">
+        <v>3715156</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D126" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="14">
+        <v>473</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H126" s="14">
+        <v>8</v>
+      </c>
+      <c r="I126" s="16">
+        <v>21.99</v>
+      </c>
+      <c r="J126" s="16">
+        <v>23.99</v>
+      </c>
+      <c r="K126" s="16">
+        <v>2</v>
+      </c>
+      <c r="L126" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M126" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="15.5">
+      <c r="A127" s="14">
+        <v>3916042</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D76" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E76" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="14">
-        <v>341</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="14">
+      <c r="D127" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E127" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="14">
+        <v>473</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H127" s="14">
+        <v>12</v>
+      </c>
+      <c r="I127" s="16">
+        <v>27.99</v>
+      </c>
+      <c r="J127" s="16">
+        <v>29.99</v>
+      </c>
+      <c r="K127" s="16">
+        <v>2</v>
+      </c>
+      <c r="L127" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M127" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="15.5">
+      <c r="A128" s="14">
+        <v>3919031</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="14">
+        <v>355</v>
+      </c>
+      <c r="G128" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I76" s="16">
-        <v>43.99</v>
-      </c>
-      <c r="J76" s="16">
-        <v>43.49</v>
-      </c>
-      <c r="K76" s="16">
-        <v>-0.5</v>
-      </c>
-      <c r="L76" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="M76" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N76" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Budweiser 28B -$0.5 to $43.49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="15.5">
-      <c r="A77" s="14">
-        <v>2597355</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="14">
-        <v>330</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="14">
-        <v>24</v>
-      </c>
-      <c r="I77" s="16">
-        <v>50.49</v>
-      </c>
-      <c r="J77" s="16">
-        <v>49.99</v>
-      </c>
-      <c r="K77" s="16">
-        <v>-0.5</v>
-      </c>
-      <c r="L77" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="M77" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N77" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Corona 24B -$0.5 to $49.99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="15.5">
-      <c r="A78" s="14">
-        <v>1629042</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="14">
-        <v>473</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" s="14">
+      <c r="H128" s="14">
         <v>12</v>
       </c>
-      <c r="I78" s="16">
-        <v>28.49</v>
-      </c>
-      <c r="J78" s="16">
-        <v>27.99</v>
-      </c>
-      <c r="K78" s="16">
-        <v>-0.5</v>
-      </c>
-      <c r="L78" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M78" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N78" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Cracked Canoe 12TC -$0.5 to $27.99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="15.5">
-      <c r="A79" s="14">
-        <v>1628042</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F79" s="14">
-        <v>473</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="14">
-        <v>12</v>
-      </c>
-      <c r="I79" s="16">
-        <v>28.49</v>
-      </c>
-      <c r="J79" s="16">
-        <v>27.99</v>
-      </c>
-      <c r="K79" s="16">
-        <v>-0.5</v>
-      </c>
-      <c r="L79" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M79" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N79" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Moosehead Lager 12TC -$0.5 to $27.99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="15.5">
-      <c r="A80" s="14">
-        <v>1041031</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F80" s="14">
-        <v>355</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" s="14">
-        <v>12</v>
-      </c>
-      <c r="I80" s="16">
-        <v>24.29</v>
-      </c>
-      <c r="J80" s="16">
-        <v>23.99</v>
-      </c>
-      <c r="K80" s="16">
-        <v>-0.3</v>
-      </c>
-      <c r="L80" s="1" t="str">
+      <c r="I128" s="16">
+        <v>23.49</v>
+      </c>
+      <c r="J128" s="16">
+        <v>25.49</v>
+      </c>
+      <c r="K128" s="16">
+        <v>2</v>
+      </c>
+      <c r="L128" s="1" t="str">
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="M80" s="1" t="str">
+      <c r="M128" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N80" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Bud Light 12C -$0.3 to $23.99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="15.5">
-      <c r="A81" s="14">
-        <v>1035031</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="15" t="s">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="15.5">
+      <c r="A129" s="14">
+        <v>3915042</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F81" s="14">
+      <c r="D129" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="14">
+        <v>473</v>
+      </c>
+      <c r="G129" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H129" s="14">
+        <v>12</v>
+      </c>
+      <c r="I129" s="16">
+        <v>28.79</v>
+      </c>
+      <c r="J129" s="16">
+        <v>30.79</v>
+      </c>
+      <c r="K129" s="16">
+        <v>2</v>
+      </c>
+      <c r="L129" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M129" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="15.5">
+      <c r="A130" s="14">
+        <v>3168031</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D130" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="14">
         <v>355</v>
       </c>
-      <c r="G81" s="15" t="s">
+      <c r="G130" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="14">
+      <c r="H130" s="14">
         <v>12</v>
       </c>
-      <c r="I81" s="16">
-        <v>24.29</v>
-      </c>
-      <c r="J81" s="16">
-        <v>23.99</v>
-      </c>
-      <c r="K81" s="16">
-        <v>-0.3</v>
-      </c>
-      <c r="L81" s="1" t="str">
+      <c r="I130" s="16">
+        <v>24.99</v>
+      </c>
+      <c r="J130" s="16">
+        <v>26.99</v>
+      </c>
+      <c r="K130" s="16">
+        <v>2</v>
+      </c>
+      <c r="L130" s="1" t="str">
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="M81" s="1" t="str">
+      <c r="M130" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N81" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Budweiser 12C -$0.3 to $23.99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="15.5">
-      <c r="A82" s="14">
-        <v>2598012</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="14">
-        <v>330</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" s="14">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="15.5">
+      <c r="A131" s="14">
+        <v>1060042</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D131" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="14">
+        <v>473</v>
+      </c>
+      <c r="G131" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H131" s="14">
         <v>12</v>
       </c>
-      <c r="I82" s="16">
-        <v>28.49</v>
-      </c>
-      <c r="J82" s="16">
-        <v>28.19</v>
-      </c>
-      <c r="K82" s="16">
-        <v>-0.3</v>
-      </c>
-      <c r="L82" s="1" t="str">
+      <c r="I131" s="16">
+        <v>25.99</v>
+      </c>
+      <c r="J131" s="16">
+        <v>27.99</v>
+      </c>
+      <c r="K131" s="16">
+        <v>2</v>
+      </c>
+      <c r="L131" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="M82" s="1" t="str">
+        <v>TC</v>
+      </c>
+      <c r="M131" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N82" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Stella Artois 12B -$0.3 to $28.19</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="15.5">
-      <c r="A83" s="14">
-        <v>1448004</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F83" s="14">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="15.5">
+      <c r="A132" s="14">
+        <v>2341042</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="14">
         <v>473</v>
       </c>
-      <c r="G83" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H83" s="14">
-        <v>1</v>
-      </c>
-      <c r="I83" s="16">
-        <v>3.15</v>
-      </c>
-      <c r="J83" s="16">
-        <v>2.85</v>
-      </c>
-      <c r="K83" s="16">
-        <v>-0.3</v>
-      </c>
-      <c r="L83" s="1" t="str">
+      <c r="G132" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H132" s="14">
+        <v>12</v>
+      </c>
+      <c r="I132" s="16">
+        <v>26.99</v>
+      </c>
+      <c r="J132" s="16">
+        <v>28.99</v>
+      </c>
+      <c r="K132" s="16">
+        <v>2</v>
+      </c>
+      <c r="L132" s="1" t="str">
         <f t="shared" si="6"/>
         <v>TC</v>
       </c>
-      <c r="M83" s="1" t="str">
+      <c r="M132" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N83" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Helles Lager 1TC -$0.3 to $2.85</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="15.5">
-      <c r="A84" s="14">
-        <v>1119063</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E84" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="14">
-        <v>500</v>
-      </c>
-      <c r="G84" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H84" s="14">
-        <v>1</v>
-      </c>
-      <c r="I84" s="16">
-        <v>2.83</v>
-      </c>
-      <c r="J84" s="16">
-        <v>2.57</v>
-      </c>
-      <c r="K84" s="16">
-        <v>-0.26</v>
-      </c>
-      <c r="L84" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M84" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N84" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Hacker Weissbier 1TC -$0.26 to $2.57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="15.5">
-      <c r="A85" s="14">
-        <v>2662063</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F85" s="14">
-        <v>500</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H85" s="14">
-        <v>1</v>
-      </c>
-      <c r="I85" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J85" s="16">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="K85" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="L85" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M85" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N85" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Paulaner Hell Munch 1TC -$0.25 to $2.18</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="15.5">
-      <c r="A86" s="14">
-        <v>1161063</v>
-      </c>
-      <c r="B86" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F86" s="14">
-        <v>500</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H86" s="14">
-        <v>1</v>
-      </c>
-      <c r="I86" s="16">
-        <v>3.01</v>
-      </c>
-      <c r="J86" s="16">
-        <v>2.76</v>
-      </c>
-      <c r="K86" s="16">
-        <v>-0.25</v>
-      </c>
-      <c r="L86" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M86" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N86" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Paulaner Weissbier 1TC -$0.25 to $2.76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="15.5">
-      <c r="A87" s="14">
-        <v>1632038</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F87" s="14">
-        <v>473</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H87" s="14">
-        <v>6</v>
-      </c>
-      <c r="I87" s="16">
-        <v>15.19</v>
-      </c>
-      <c r="J87" s="16">
-        <v>14.99</v>
-      </c>
-      <c r="K87" s="16">
-        <v>-0.2</v>
-      </c>
-      <c r="L87" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M87" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N87" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Alpine Lager 6TC -$0.2 to $14.99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="15.5">
-      <c r="A88" s="14">
-        <v>1629038</v>
-      </c>
-      <c r="B88" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F88" s="14">
-        <v>473</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" s="14">
-        <v>6</v>
-      </c>
-      <c r="I88" s="16">
-        <v>15.19</v>
-      </c>
-      <c r="J88" s="16">
-        <v>14.99</v>
-      </c>
-      <c r="K88" s="16">
-        <v>-0.2</v>
-      </c>
-      <c r="L88" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M88" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N88" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Cracked Canoe 6TC -$0.2 to $14.99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="15.5">
-      <c r="A89" s="14">
-        <v>1628038</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F89" s="14">
-        <v>473</v>
-      </c>
-      <c r="G89" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H89" s="14">
-        <v>6</v>
-      </c>
-      <c r="I89" s="16">
-        <v>15.19</v>
-      </c>
-      <c r="J89" s="16">
-        <v>14.99</v>
-      </c>
-      <c r="K89" s="16">
-        <v>-0.2</v>
-      </c>
-      <c r="L89" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M89" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N89" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Moosehead Lager 6TC -$0.2 to $14.99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="15.5">
-      <c r="A90" s="14">
-        <v>1219063</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E90" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F90" s="14">
-        <v>500</v>
-      </c>
-      <c r="G90" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H90" s="14">
-        <v>1</v>
-      </c>
-      <c r="I90" s="16">
-        <v>2.4900000000000002</v>
-      </c>
-      <c r="J90" s="16">
-        <v>2.34</v>
-      </c>
-      <c r="K90" s="16">
-        <v>-0.15</v>
-      </c>
-      <c r="L90" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M90" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N90" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Tyskie Gronie 1TC -$0.15 to $2.34</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="15.5">
-      <c r="A91" s="14">
-        <v>3452004</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F91" s="14">
-        <v>473</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H91" s="14">
-        <v>1</v>
-      </c>
-      <c r="I91" s="16">
-        <v>2.4500000000000002</v>
-      </c>
-      <c r="J91" s="16">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="K91" s="16">
-        <v>-0.15</v>
-      </c>
-      <c r="L91" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M91" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N91" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Grolsch 1TC -$0.15 to $2.3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="15.5">
-      <c r="A92" s="14">
-        <v>1620004</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F92" s="14">
-        <v>473</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H92" s="14">
-        <v>1</v>
-      </c>
-      <c r="I92" s="16">
-        <v>3.05</v>
-      </c>
-      <c r="J92" s="16">
-        <v>2.99</v>
-      </c>
-      <c r="K92" s="16">
-        <v>-0.06</v>
-      </c>
-      <c r="L92" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M92" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>-</v>
-      </c>
-      <c r="N92" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Moosehead Radler 1TC -$0.06 to $2.99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="15.5">
-      <c r="A93" s="14">
-        <v>1194063</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="E93" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F93" s="14">
-        <v>500</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H93" s="14">
-        <v>1</v>
-      </c>
-      <c r="I93" s="16">
-        <v>2.39</v>
-      </c>
-      <c r="J93" s="16">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="K93" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="L93" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M93" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N93" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Munich Gold Lager 1TC +$0.04 to $2.43</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="15.5">
-      <c r="A94" s="14">
-        <v>3154004</v>
-      </c>
-      <c r="B94" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E94" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F94" s="14">
-        <v>473</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H94" s="14">
-        <v>1</v>
-      </c>
-      <c r="I94" s="16">
-        <v>2.79</v>
-      </c>
-      <c r="J94" s="16">
-        <v>2.89</v>
-      </c>
-      <c r="K94" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L94" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M94" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N94" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Longhorn Lager 1TC +$0.1 to $2.89</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="15.5">
-      <c r="A95" s="14">
-        <v>1624004</v>
-      </c>
-      <c r="B95" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F95" s="14">
-        <v>473</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H95" s="14">
-        <v>1</v>
-      </c>
-      <c r="I95" s="16">
-        <v>2.59</v>
-      </c>
-      <c r="J95" s="16">
-        <v>2.69</v>
-      </c>
-      <c r="K95" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L95" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M95" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N95" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Moosehead Light 1TC +$0.1 to $2.69</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="15.5">
-      <c r="A96" s="14">
-        <v>2975004</v>
-      </c>
-      <c r="B96" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F96" s="14">
-        <v>473</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H96" s="14">
-        <v>1</v>
-      </c>
-      <c r="I96" s="16">
-        <v>3.14</v>
-      </c>
-      <c r="J96" s="16">
-        <v>3.32</v>
-      </c>
-      <c r="K96" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="L96" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M96" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N96" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Stockyards Lager 1TC +$0.18 to $3.32</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="15.5">
-      <c r="A97" s="14">
-        <v>3715004</v>
-      </c>
-      <c r="B97" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F97" s="14">
-        <v>473</v>
-      </c>
-      <c r="G97" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H97" s="14">
-        <v>1</v>
-      </c>
-      <c r="I97" s="16">
-        <v>2.99</v>
-      </c>
-      <c r="J97" s="16">
-        <v>3.19</v>
-      </c>
-      <c r="K97" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L97" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M97" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N97" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Rough Stock Ipa 1TC +$0.2 to $3.19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="15.5">
-      <c r="A98" s="14">
-        <v>1584004</v>
-      </c>
-      <c r="B98" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F98" s="14">
-        <v>473</v>
-      </c>
-      <c r="G98" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H98" s="14">
-        <v>1</v>
-      </c>
-      <c r="I98" s="16">
-        <v>3.05</v>
-      </c>
-      <c r="J98" s="16">
-        <v>3.3</v>
-      </c>
-      <c r="K98" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L98" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M98" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N98" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Headstock Ipa 1TC +$0.25 to $3.3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="15.5">
-      <c r="A99" s="14">
-        <v>1584004</v>
-      </c>
-      <c r="B99" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E99" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="F99" s="14">
-        <v>473</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H99" s="14">
-        <v>1</v>
-      </c>
-      <c r="I99" s="16">
-        <v>3.05</v>
-      </c>
-      <c r="J99" s="16">
-        <v>3.3</v>
-      </c>
-      <c r="K99" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="L99" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M99" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N99" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Headstock Ipa 1TC +$0.25 to $3.3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="15.5">
-      <c r="A100" s="14">
-        <v>1617173</v>
-      </c>
-      <c r="B100" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F100" s="14">
+        <v>+</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="15.5">
+      <c r="A133" s="14">
+        <v>3867427</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="14">
         <v>355</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="G133" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H100" s="14">
-        <v>15</v>
-      </c>
-      <c r="I100" s="16">
+      <c r="H133" s="14">
+        <v>12</v>
+      </c>
+      <c r="I133" s="16">
+        <v>23.99</v>
+      </c>
+      <c r="J133" s="16">
         <v>25.99</v>
       </c>
-      <c r="J100" s="16">
-        <v>26.49</v>
-      </c>
-      <c r="K100" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L100" s="1" t="str">
+      <c r="K133" s="16">
+        <v>2</v>
+      </c>
+      <c r="L133" s="1" t="str">
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="M100" s="1" t="str">
+      <c r="M133" s="1" t="str">
         <f t="shared" si="7"/>
         <v>+</v>
       </c>
-      <c r="N100" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>James Ready 5.5 15C +$0.5 to $26.49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="15.5">
-      <c r="A101" s="14">
-        <v>1631173</v>
-      </c>
-      <c r="B101" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E101" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F101" s="14">
+    </row>
+    <row r="134" spans="1:13" ht="15.5">
+      <c r="A134" s="14">
+        <v>1465042</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" s="14">
+        <v>473</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" s="14">
+        <v>12</v>
+      </c>
+      <c r="I134" s="16">
+        <v>31.99</v>
+      </c>
+      <c r="J134" s="16">
+        <v>33.99</v>
+      </c>
+      <c r="K134" s="16">
+        <v>2</v>
+      </c>
+      <c r="L134" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>TC</v>
+      </c>
+      <c r="M134" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" ht="15.5">
+      <c r="A135" s="14">
+        <v>3870427</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="14">
         <v>355</v>
       </c>
-      <c r="G101" s="15" t="s">
+      <c r="G135" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H101" s="14">
-        <v>15</v>
-      </c>
-      <c r="I101" s="16">
-        <v>25.99</v>
-      </c>
-      <c r="J101" s="16">
-        <v>26.49</v>
-      </c>
-      <c r="K101" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L101" s="1" t="str">
+      <c r="H135" s="14">
+        <v>12</v>
+      </c>
+      <c r="I135" s="16">
+        <v>24.99</v>
+      </c>
+      <c r="J135" s="16">
+        <v>26.99</v>
+      </c>
+      <c r="K135" s="16">
+        <v>2</v>
+      </c>
+      <c r="L135" s="1" t="str">
         <f t="shared" si="6"/>
         <v>C</v>
       </c>
-      <c r="M101" s="1" t="str">
+      <c r="M135" s="1" t="str">
         <f t="shared" si="7"/>
         <v>+</v>
       </c>
-      <c r="N101" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>James Ready 6.0 15C +$0.5 to $26.49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="15.5">
-      <c r="A102" s="14">
-        <v>1065002</v>
-      </c>
-      <c r="B102" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" s="14">
-        <v>341</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="14">
-        <v>12</v>
-      </c>
-      <c r="I102" s="16">
-        <v>27.99</v>
-      </c>
-      <c r="J102" s="16">
-        <v>28.49</v>
-      </c>
-      <c r="K102" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="L102" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>B</v>
-      </c>
-      <c r="M102" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N102" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Steam Whistle 12B +$0.5 to $28.49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="15.5">
-      <c r="A103" s="14">
-        <v>1709306</v>
-      </c>
-      <c r="B103" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E103" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F103" s="14">
-        <v>473</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H103" s="14">
-        <v>6</v>
-      </c>
-      <c r="I103" s="16">
-        <v>17.59</v>
-      </c>
-      <c r="J103" s="16">
-        <v>18.29</v>
-      </c>
-      <c r="K103" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="L103" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M103" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N103" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Beau'S Lug Tread 6TC +$0.7 to $18.29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="15.5">
-      <c r="A104" s="14">
-        <v>1065306</v>
-      </c>
-      <c r="B104" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F104" s="14">
-        <v>473</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H104" s="14">
-        <v>6</v>
-      </c>
-      <c r="I104" s="16">
-        <v>17.59</v>
-      </c>
-      <c r="J104" s="16">
-        <v>18.29</v>
-      </c>
-      <c r="K104" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="L104" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>TC</v>
-      </c>
-      <c r="M104" s="1" t="str">
-        <f t="shared" si="7"/>
-        <v>+</v>
-      </c>
-      <c r="N104" s="1" t="str">
-        <f t="shared" si="8"/>
-        <v>Steam Whistle 6TC +$0.7 to $18.29</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="15.5">
-      <c r="A105" s="14">
-        <v>1208130</v>
-      </c>
-      <c r="B105" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E105" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F105" s="14">
-        <v>500</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H105" s="14">
-        <v>24</v>
-      </c>
-      <c r="I105" s="16">
-        <v>53.58</v>
-      </c>
-      <c r="J105" s="16">
-        <v>54.47</v>
-      </c>
-      <c r="K105" s="16">
-        <v>0.89</v>
-      </c>
-      <c r="L105" s="1" t="str">
-        <f t="shared" ref="L105:L136" si="9">IF(F105&gt;355,"TC",LEFT(E105,1))</f>
-        <v>TC</v>
-      </c>
-      <c r="M105" s="1" t="str">
-        <f t="shared" ref="M105:M136" si="10">IF(K105&gt;0,"+","-")</f>
-        <v>+</v>
-      </c>
-      <c r="N105" s="1" t="str">
-        <f t="shared" ref="N105:N136" si="11">PROPER($D105)&amp;" "&amp;$H105&amp;$L105&amp;" "&amp;$M105&amp;"$"&amp;ABS($K105)&amp;" to $"&amp;$J105</f>
-        <v>Czechvar 24TC +$0.89 to $54.47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="15.5">
-      <c r="A106" s="14">
-        <v>1617172</v>
-      </c>
-      <c r="B106" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F106" s="14">
-        <v>355</v>
-      </c>
-      <c r="G106" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106" s="14">
-        <v>30</v>
-      </c>
-      <c r="I106" s="16">
-        <v>43.49</v>
-      </c>
-      <c r="J106" s="16">
-        <v>44.49</v>
-      </c>
-      <c r="K106" s="16">
-        <v>1</v>
-      </c>
-      <c r="L106" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M106" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N106" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>James Ready 5.5 30C +$1 to $44.49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="15.5">
-      <c r="A107" s="14">
-        <v>3878038</v>
-      </c>
-      <c r="B107" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F107" s="14">
-        <v>473</v>
-      </c>
-      <c r="G107" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H107" s="14">
-        <v>6</v>
-      </c>
-      <c r="I107" s="16">
-        <v>17.89</v>
-      </c>
-      <c r="J107" s="16">
-        <v>18.89</v>
-      </c>
-      <c r="K107" s="16">
-        <v>1</v>
-      </c>
-      <c r="L107" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M107" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N107" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Muskoka Survival Mix 6TC +$1 to $18.89</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="15.5">
-      <c r="A108" s="14">
-        <v>3718038</v>
-      </c>
-      <c r="B108" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F108" s="14">
-        <v>473</v>
-      </c>
-      <c r="G108" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H108" s="14">
-        <v>6</v>
-      </c>
-      <c r="I108" s="16">
-        <v>17.89</v>
-      </c>
-      <c r="J108" s="16">
-        <v>18.89</v>
-      </c>
-      <c r="K108" s="16">
-        <v>1</v>
-      </c>
-      <c r="L108" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M108" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N108" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Muskoka Survl Mix 24 6TC +$1 to $18.89</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="15.5">
-      <c r="A109" s="14">
-        <v>2662128</v>
-      </c>
-      <c r="B109" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E109" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" s="14">
-        <v>500</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H109" s="14">
-        <v>4</v>
-      </c>
-      <c r="I109" s="16">
-        <v>8.56</v>
-      </c>
-      <c r="J109" s="16">
-        <v>9.56</v>
-      </c>
-      <c r="K109" s="16">
-        <v>1</v>
-      </c>
-      <c r="L109" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M109" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N109" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Paulaner Hell Munch 4TC +$1 to $9.56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="15.5">
-      <c r="A110" s="14">
-        <v>3261128</v>
-      </c>
-      <c r="B110" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E110" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F110" s="14">
-        <v>500</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H110" s="14">
-        <v>4</v>
-      </c>
-      <c r="I110" s="16">
-        <v>9.49</v>
-      </c>
-      <c r="J110" s="16">
-        <v>10.49</v>
-      </c>
-      <c r="K110" s="16">
-        <v>1</v>
-      </c>
-      <c r="L110" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M110" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N110" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Paulaner Pils 4TC +$1 to $10.49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="15.5">
-      <c r="A111" s="14">
-        <v>1161128</v>
-      </c>
-      <c r="B111" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F111" s="14">
-        <v>500</v>
-      </c>
-      <c r="G111" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H111" s="14">
-        <v>4</v>
-      </c>
-      <c r="I111" s="16">
-        <v>10.68</v>
-      </c>
-      <c r="J111" s="16">
-        <v>11.68</v>
-      </c>
-      <c r="K111" s="16">
-        <v>1</v>
-      </c>
-      <c r="L111" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M111" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N111" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Paulaner Weissbier 4TC +$1 to $11.68</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="15.5">
-      <c r="A112" s="14">
-        <v>1497038</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E112" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F112" s="14">
-        <v>473</v>
-      </c>
-      <c r="G112" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H112" s="14">
-        <v>6</v>
-      </c>
-      <c r="I112" s="16">
-        <v>10.99</v>
-      </c>
-      <c r="J112" s="16">
-        <v>11.99</v>
-      </c>
-      <c r="K112" s="16">
-        <v>1</v>
-      </c>
-      <c r="L112" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M112" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N112" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Pbr Light 6TC +$1 to $11.99</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="15.5">
-      <c r="A113" s="14">
-        <v>3849030</v>
-      </c>
-      <c r="B113" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E113" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F113" s="14">
-        <v>355</v>
-      </c>
-      <c r="G113" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H113" s="14">
-        <v>6</v>
-      </c>
-      <c r="I113" s="16">
-        <v>11.29</v>
-      </c>
-      <c r="J113" s="16">
-        <v>12.29</v>
-      </c>
-      <c r="K113" s="16">
-        <v>1</v>
-      </c>
-      <c r="L113" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M113" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N113" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Sapporo 0.0% 6C +$1 to $12.29</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="15.5">
-      <c r="A114" s="14">
-        <v>1065033</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E114" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F114" s="14">
-        <v>355</v>
-      </c>
-      <c r="G114" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H114" s="14">
-        <v>24</v>
-      </c>
-      <c r="I114" s="16">
-        <v>50.99</v>
-      </c>
-      <c r="J114" s="16">
-        <v>51.99</v>
-      </c>
-      <c r="K114" s="16">
-        <v>1</v>
-      </c>
-      <c r="L114" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M114" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N114" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Steam Whistle 24C +$1 to $51.99</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="15.5">
-      <c r="A115" s="14">
-        <v>1167128</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="D115" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E115" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F115" s="14">
-        <v>500</v>
-      </c>
-      <c r="G115" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="14">
-        <v>4</v>
-      </c>
-      <c r="I115" s="16">
-        <v>11.39</v>
-      </c>
-      <c r="J115" s="16">
-        <v>12.39</v>
-      </c>
-      <c r="K115" s="16">
-        <v>1</v>
-      </c>
-      <c r="L115" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M115" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N115" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Bavaria 8.6 4TC +$1 to $12.39</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="15.5">
-      <c r="A116" s="14">
-        <v>1497041</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F116" s="14">
-        <v>473</v>
-      </c>
-      <c r="G116" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H116" s="14">
-        <v>24</v>
-      </c>
-      <c r="I116" s="16">
-        <v>43.96</v>
-      </c>
-      <c r="J116" s="16">
-        <v>44.99</v>
-      </c>
-      <c r="K116" s="16">
-        <v>1.03</v>
-      </c>
-      <c r="L116" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M116" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N116" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Pbr Light 24TC +$1.03 to $44.99</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="15.5">
-      <c r="A117" s="14">
-        <v>1060041</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D117" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E117" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F117" s="14">
-        <v>473</v>
-      </c>
-      <c r="G117" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H117" s="14">
-        <v>24</v>
-      </c>
-      <c r="I117" s="16">
-        <v>51.89</v>
-      </c>
-      <c r="J117" s="16">
-        <v>52.99</v>
-      </c>
-      <c r="K117" s="16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L117" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M117" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N117" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coors Light 24TC +$1.1 to $52.99</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="15.5">
-      <c r="A118" s="14">
-        <v>1595038</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D118" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E118" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" s="14">
-        <v>473</v>
-      </c>
-      <c r="G118" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H118" s="14">
-        <v>6</v>
-      </c>
-      <c r="I118" s="16">
-        <v>18.14</v>
-      </c>
-      <c r="J118" s="16">
-        <v>19.39</v>
-      </c>
-      <c r="K118" s="16">
-        <v>1.25</v>
-      </c>
-      <c r="L118" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M118" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N118" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Mad Tom Ipa 6TC +$1.25 to $19.39</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" ht="15.5">
-      <c r="A119" s="14">
-        <v>1416038</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D119" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" s="14">
-        <v>473</v>
-      </c>
-      <c r="G119" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H119" s="14">
-        <v>6</v>
-      </c>
-      <c r="I119" s="16">
-        <v>13.49</v>
-      </c>
-      <c r="J119" s="16">
-        <v>14.84</v>
-      </c>
-      <c r="K119" s="16">
-        <v>1.35</v>
-      </c>
-      <c r="L119" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M119" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N119" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Landshark Lager 6TC +$1.35 to $14.84</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="15.5">
-      <c r="A120" s="14">
-        <v>1425038</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D120" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E120" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" s="14">
-        <v>473</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H120" s="14">
-        <v>6</v>
-      </c>
-      <c r="I120" s="16">
-        <v>9.99</v>
-      </c>
-      <c r="J120" s="16">
-        <v>11.39</v>
-      </c>
-      <c r="K120" s="16">
-        <v>1.4</v>
-      </c>
-      <c r="L120" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M120" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N120" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Laker Light 6TC +$1.4 to $11.39</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="15.5">
-      <c r="A121" s="14">
-        <v>1035042</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D121" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E121" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F121" s="14">
-        <v>473</v>
-      </c>
-      <c r="G121" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H121" s="14">
-        <v>12</v>
-      </c>
-      <c r="I121" s="16">
-        <v>26.49</v>
-      </c>
-      <c r="J121" s="16">
-        <v>27.99</v>
-      </c>
-      <c r="K121" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L121" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M121" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N121" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Budweiser 12TC +$1.5 to $27.99</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="15.5">
-      <c r="A122" s="14">
-        <v>2597354</v>
-      </c>
-      <c r="B122" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D122" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E122" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F122" s="14">
-        <v>330</v>
-      </c>
-      <c r="G122" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H122" s="14">
-        <v>12</v>
-      </c>
-      <c r="I122" s="16">
-        <v>26.69</v>
-      </c>
-      <c r="J122" s="16">
-        <v>28.19</v>
-      </c>
-      <c r="K122" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="L122" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>B</v>
-      </c>
-      <c r="M122" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N122" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Corona 12B +$1.5 to $28.19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="15.5">
-      <c r="A123" s="14">
-        <v>1497042</v>
-      </c>
-      <c r="B123" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C123" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E123" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F123" s="14">
-        <v>473</v>
-      </c>
-      <c r="G123" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H123" s="14">
-        <v>12</v>
-      </c>
-      <c r="I123" s="16">
-        <v>21.98</v>
-      </c>
-      <c r="J123" s="16">
-        <v>23.49</v>
-      </c>
-      <c r="K123" s="16">
-        <v>1.51</v>
-      </c>
-      <c r="L123" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M123" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N123" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Pbr Light 12TC +$1.51 to $23.49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" ht="15.5">
-      <c r="A124" s="14">
-        <v>3879156</v>
-      </c>
-      <c r="B124" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C124" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D124" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E124" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F124" s="14">
-        <v>473</v>
-      </c>
-      <c r="G124" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H124" s="14">
-        <v>8</v>
-      </c>
-      <c r="I124" s="16">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="J124" s="16">
-        <v>20.99</v>
-      </c>
-      <c r="K124" s="16">
-        <v>2</v>
-      </c>
-      <c r="L124" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M124" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N124" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Gone Fishin Light 8TC +$2 to $20.99</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="15.5">
-      <c r="A125" s="14">
-        <v>3154156</v>
-      </c>
-      <c r="B125" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D125" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E125" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F125" s="14">
-        <v>473</v>
-      </c>
-      <c r="G125" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H125" s="14">
-        <v>8</v>
-      </c>
-      <c r="I125" s="16">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="J125" s="16">
-        <v>21.99</v>
-      </c>
-      <c r="K125" s="16">
-        <v>2</v>
-      </c>
-      <c r="L125" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M125" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N125" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Longhorn Lager 8TC +$2 to $21.99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="15.5">
-      <c r="A126" s="14">
-        <v>3715156</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="D126" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F126" s="14">
-        <v>473</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H126" s="14">
-        <v>8</v>
-      </c>
-      <c r="I126" s="16">
-        <v>21.99</v>
-      </c>
-      <c r="J126" s="16">
-        <v>23.99</v>
-      </c>
-      <c r="K126" s="16">
-        <v>2</v>
-      </c>
-      <c r="L126" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M126" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N126" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Rough Stock Ipa 8TC +$2 to $23.99</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="15.5">
-      <c r="A127" s="14">
-        <v>3916042</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E127" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F127" s="14">
-        <v>473</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H127" s="14">
-        <v>12</v>
-      </c>
-      <c r="I127" s="16">
-        <v>27.99</v>
-      </c>
-      <c r="J127" s="16">
-        <v>29.99</v>
-      </c>
-      <c r="K127" s="16">
-        <v>2</v>
-      </c>
-      <c r="L127" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M127" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N127" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Bud Light Lemon Lime 12TC +$2 to $29.99</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="15.5">
-      <c r="A128" s="14">
-        <v>3919031</v>
-      </c>
-      <c r="B128" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E128" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="14">
-        <v>355</v>
-      </c>
-      <c r="G128" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H128" s="14">
-        <v>12</v>
-      </c>
-      <c r="I128" s="16">
-        <v>23.49</v>
-      </c>
-      <c r="J128" s="16">
-        <v>25.49</v>
-      </c>
-      <c r="K128" s="16">
-        <v>2</v>
-      </c>
-      <c r="L128" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M128" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N128" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Bud Light Lime Time 12C +$2 to $25.49</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" ht="15.5">
-      <c r="A129" s="14">
-        <v>3915042</v>
-      </c>
-      <c r="B129" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E129" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F129" s="14">
-        <v>473</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H129" s="14">
-        <v>12</v>
-      </c>
-      <c r="I129" s="16">
-        <v>28.79</v>
-      </c>
-      <c r="J129" s="16">
-        <v>30.79</v>
-      </c>
-      <c r="K129" s="16">
-        <v>2</v>
-      </c>
-      <c r="L129" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M129" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N129" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Mikes Halfer Lem&amp;Lag 12TC +$2 to $30.79</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="15.5">
-      <c r="A130" s="14">
-        <v>3168031</v>
-      </c>
-      <c r="B130" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E130" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F130" s="14">
-        <v>355</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H130" s="14">
-        <v>12</v>
-      </c>
-      <c r="I130" s="16">
-        <v>24.99</v>
-      </c>
-      <c r="J130" s="16">
-        <v>26.99</v>
-      </c>
-      <c r="K130" s="16">
-        <v>2</v>
-      </c>
-      <c r="L130" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M130" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N130" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Arizona Hard Variety 12C +$2 to $26.99</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="15.5">
-      <c r="A131" s="14">
-        <v>1060042</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F131" s="14">
-        <v>473</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H131" s="14">
-        <v>12</v>
-      </c>
-      <c r="I131" s="16">
-        <v>25.99</v>
-      </c>
-      <c r="J131" s="16">
-        <v>27.99</v>
-      </c>
-      <c r="K131" s="16">
-        <v>2</v>
-      </c>
-      <c r="L131" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M131" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N131" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coors Light 12TC +$2 to $27.99</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="15.5">
-      <c r="A132" s="14">
-        <v>2341042</v>
-      </c>
-      <c r="B132" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E132" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F132" s="14">
-        <v>473</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H132" s="14">
-        <v>12</v>
-      </c>
-      <c r="I132" s="16">
-        <v>26.99</v>
-      </c>
-      <c r="J132" s="16">
-        <v>28.99</v>
-      </c>
-      <c r="K132" s="16">
-        <v>2</v>
-      </c>
-      <c r="L132" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M132" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N132" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coors Original 12TC +$2 to $28.99</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="15.5">
-      <c r="A133" s="14">
-        <v>3867427</v>
-      </c>
-      <c r="B133" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E133" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F133" s="14">
-        <v>355</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H133" s="14">
-        <v>12</v>
-      </c>
-      <c r="I133" s="16">
-        <v>23.99</v>
-      </c>
-      <c r="J133" s="16">
-        <v>25.99</v>
-      </c>
-      <c r="K133" s="16">
-        <v>2</v>
-      </c>
-      <c r="L133" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M133" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N133" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Coors Selt Mixables 12C +$2 to $25.99</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="15.5">
-      <c r="A134" s="14">
-        <v>1465042</v>
-      </c>
-      <c r="B134" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E134" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F134" s="14">
-        <v>473</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H134" s="14">
-        <v>12</v>
-      </c>
-      <c r="I134" s="16">
-        <v>31.99</v>
-      </c>
-      <c r="J134" s="16">
-        <v>33.99</v>
-      </c>
-      <c r="K134" s="16">
-        <v>2</v>
-      </c>
-      <c r="L134" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>TC</v>
-      </c>
-      <c r="M134" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N134" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Creemore Lager 12TC +$2 to $33.99</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="15.5">
-      <c r="A135" s="14">
-        <v>3870427</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E135" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F135" s="14">
-        <v>355</v>
-      </c>
-      <c r="G135" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H135" s="14">
-        <v>12</v>
-      </c>
-      <c r="I135" s="16">
-        <v>24.99</v>
-      </c>
-      <c r="J135" s="16">
-        <v>26.99</v>
-      </c>
-      <c r="K135" s="16">
-        <v>2</v>
-      </c>
-      <c r="L135" s="1" t="str">
-        <f t="shared" si="9"/>
-        <v>C</v>
-      </c>
-      <c r="M135" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N135" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Simply Limeade 12C +$2 to $26.99</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" ht="15.5">
+    </row>
+    <row r="136" spans="1:13" ht="15.5">
       <c r="A136" s="14">
         <v>3866427</v>
       </c>
@@ -7210,19 +6706,15 @@
         <v>2</v>
       </c>
       <c r="L136" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
       <c r="M136" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>+</v>
-      </c>
-      <c r="N136" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>Vizzy Cream Pop Vp 12C +$2 to $26.99</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" ht="15.5">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" ht="15.5">
       <c r="A137" s="14">
         <v>1628224</v>
       </c>
@@ -7257,19 +6749,15 @@
         <v>2</v>
       </c>
       <c r="L137" s="1" t="str">
-        <f t="shared" ref="L137:L168" si="12">IF(F137&gt;355,"TC",LEFT(E137,1))</f>
+        <f t="shared" ref="L137:L168" si="8">IF(F137&gt;355,"TC",LEFT(E137,1))</f>
         <v>C</v>
       </c>
       <c r="M137" s="1" t="str">
-        <f t="shared" ref="M137:M168" si="13">IF(K137&gt;0,"+","-")</f>
-        <v>+</v>
-      </c>
-      <c r="N137" s="1" t="str">
-        <f t="shared" ref="N137:N168" si="14">PROPER($D137)&amp;" "&amp;$H137&amp;$L137&amp;" "&amp;$M137&amp;"$"&amp;ABS($K137)&amp;" to $"&amp;$J137</f>
-        <v>Moosehead Lager 60C +$2 to $97.99</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" ht="15.5">
+        <f t="shared" ref="M137:M168" si="9">IF(K137&gt;0,"+","-")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" ht="15.5">
       <c r="A138" s="14">
         <v>3839028</v>
       </c>
@@ -7304,19 +6792,15 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="L138" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M138" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N138" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Barnburner Amber Ale 1TC +$2.22 to $153.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" ht="15.5">
       <c r="A139" s="14">
         <v>3839028</v>
       </c>
@@ -7351,19 +6835,15 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="L139" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M139" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N139" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Barnburner Amber Ale 1TC +$2.22 to $153.5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" ht="15.5">
       <c r="A140" s="14">
         <v>1879172</v>
       </c>
@@ -7398,19 +6878,15 @@
         <v>2.5</v>
       </c>
       <c r="L140" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M140" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N140" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Miller High Life 30C +$2.5 to $47.99</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" ht="15.5">
       <c r="A141" s="14">
         <v>1879042</v>
       </c>
@@ -7445,19 +6921,15 @@
         <v>2.5</v>
       </c>
       <c r="L141" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M141" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N141" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Miller High Life 12TC +$2.5 to $23.49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" ht="15.5">
       <c r="A142" s="14">
         <v>3458038</v>
       </c>
@@ -7492,19 +6964,15 @@
         <v>2.66</v>
       </c>
       <c r="L142" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M142" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N142" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Stockyards Lager Mix 6TC +$2.66 to $19.78</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" ht="15.5">
       <c r="A143" s="14">
         <v>1709041</v>
       </c>
@@ -7539,19 +7007,15 @@
         <v>3</v>
       </c>
       <c r="L143" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M143" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N143" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Beau'S Lug Tread 24TC +$3 to $63.99</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" ht="15.5">
       <c r="A144" s="14">
         <v>2597033</v>
       </c>
@@ -7586,19 +7050,15 @@
         <v>3</v>
       </c>
       <c r="L144" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M144" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N144" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Corona 24C +$3 to $50.69</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" ht="15.5">
       <c r="A145" s="14">
         <v>1629041</v>
       </c>
@@ -7633,19 +7093,15 @@
         <v>3</v>
       </c>
       <c r="L145" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M145" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N145" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Cracked Canoe 24TC +$3 to $52.99</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" ht="15.5">
       <c r="A146" s="14">
         <v>1628041</v>
       </c>
@@ -7680,19 +7136,15 @@
         <v>3</v>
       </c>
       <c r="L146" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M146" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N146" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Moosehead Lager 24TC +$3 to $52.99</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" ht="15.5">
       <c r="A147" s="14">
         <v>1489033</v>
       </c>
@@ -7727,19 +7179,15 @@
         <v>3</v>
       </c>
       <c r="L147" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M147" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N147" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Sapporo 24C +$3 to $50.69</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" ht="15.5">
       <c r="A148" s="14">
         <v>1879041</v>
       </c>
@@ -7774,19 +7222,15 @@
         <v>3.1</v>
       </c>
       <c r="L148" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M148" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N148" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Miller High Life 24TC +$3.1 to $44.99</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" ht="15.5">
       <c r="A149" s="14">
         <v>2109013</v>
       </c>
@@ -7821,19 +7265,15 @@
         <v>4</v>
       </c>
       <c r="L149" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="M149" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N149" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Asahi Super Dry 24B +$4 to $49.29</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" ht="15.5">
       <c r="A150" s="14">
         <v>1709033</v>
       </c>
@@ -7868,19 +7308,15 @@
         <v>4</v>
       </c>
       <c r="L150" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M150" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N150" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Beau'S Lug Tread 24C +$4 to $49.99</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" ht="15.5">
       <c r="A151" s="14">
         <v>3915041</v>
       </c>
@@ -7915,19 +7351,15 @@
         <v>4</v>
       </c>
       <c r="L151" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M151" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N151" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Mikes Halfer Lem&amp;Lag 24TC +$4 to $57.99</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" ht="15.5">
       <c r="A152" s="14">
         <v>1090005</v>
       </c>
@@ -7962,19 +7394,15 @@
         <v>4</v>
       </c>
       <c r="L152" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="M152" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N152" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Mill St Organic Lag 24B +$4 to $48.49</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" ht="15.5">
       <c r="A153" s="14">
         <v>3667418</v>
       </c>
@@ -8009,19 +7437,15 @@
         <v>4</v>
       </c>
       <c r="L153" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M153" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N153" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Coors Selt Splash 24C +$4 to $47.99</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" ht="15.5">
       <c r="A154" s="14">
         <v>1632033</v>
       </c>
@@ -8056,19 +7480,15 @@
         <v>4</v>
       </c>
       <c r="L154" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M154" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N154" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Alpine Lager 24C +$4 to $44.99</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" ht="15.5">
       <c r="A155" s="14">
         <v>1629033</v>
       </c>
@@ -8103,19 +7523,15 @@
         <v>4</v>
       </c>
       <c r="L155" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M155" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N155" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Cracked Canoe 24C +$4 to $44.99</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" ht="15.5">
       <c r="A156" s="14">
         <v>1617041</v>
       </c>
@@ -8150,19 +7566,15 @@
         <v>4</v>
       </c>
       <c r="L156" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M156" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N156" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>James Ready 5.5 24TC +$4 to $44.99</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" ht="15.5">
       <c r="A157" s="14">
         <v>1628033</v>
       </c>
@@ -8197,19 +7609,15 @@
         <v>4</v>
       </c>
       <c r="L157" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M157" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N157" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Moosehead Lager 24C +$4 to $44.99</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.5">
       <c r="A158" s="14">
         <v>1624033</v>
       </c>
@@ -8244,19 +7652,15 @@
         <v>4</v>
       </c>
       <c r="L158" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M158" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N158" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Moosehead Light 24C +$4 to $44.99</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" ht="15.5">
       <c r="A159" s="14">
         <v>1602033</v>
       </c>
@@ -8291,19 +7695,15 @@
         <v>4</v>
       </c>
       <c r="L159" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M159" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N159" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Muskoka Craft Lager 24C +$4 to $48.49</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="15.5">
       <c r="A160" s="14">
         <v>2503033</v>
       </c>
@@ -8338,19 +7738,15 @@
         <v>4</v>
       </c>
       <c r="L160" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M160" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N160" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Muskoka Tread Light 24C +$4 to $43.99</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" ht="15.5">
       <c r="A161" s="14">
         <v>1585041</v>
       </c>
@@ -8385,19 +7781,15 @@
         <v>4</v>
       </c>
       <c r="L161" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M161" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N161" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Naughty Neighbour 24TC +$4 to $65.88</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" ht="15.5">
       <c r="A162" s="14">
         <v>1585041</v>
       </c>
@@ -8432,19 +7824,15 @@
         <v>4</v>
       </c>
       <c r="L162" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M162" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N162" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Naughty Neighbour 24TC +$4 to $65.88</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="15.5">
       <c r="A163" s="14">
         <v>3703041</v>
       </c>
@@ -8479,19 +7867,15 @@
         <v>4</v>
       </c>
       <c r="L163" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M163" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N163" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Nickel Brook Lager 24TC +$4 to $57</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" ht="15.5">
       <c r="A164" s="14">
         <v>3703041</v>
       </c>
@@ -8526,19 +7910,15 @@
         <v>4</v>
       </c>
       <c r="L164" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M164" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N164" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Nickel Brook Lager 24TC +$4 to $57</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" ht="15.5">
       <c r="A165" s="14">
         <v>1065033</v>
       </c>
@@ -8573,19 +7953,15 @@
         <v>4</v>
       </c>
       <c r="L165" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M165" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N165" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Steam Whistle 24C +$4 to $49.99</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="15.5">
       <c r="A166" s="14">
         <v>2341041</v>
       </c>
@@ -8620,19 +7996,15 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="L166" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>TC</v>
       </c>
       <c r="M166" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N166" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Coors Original 24TC +$4.1 to $57.99</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="15.5">
       <c r="A167" s="14">
         <v>1046172</v>
       </c>
@@ -8667,19 +8039,15 @@
         <v>4.5</v>
       </c>
       <c r="L167" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>C</v>
       </c>
       <c r="M167" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N167" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Busch Light 30C +$4.5 to $47.99</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" ht="15.5">
       <c r="A168" s="14">
         <v>1056100</v>
       </c>
@@ -8714,19 +8082,15 @@
         <v>4.5</v>
       </c>
       <c r="L168" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>B</v>
       </c>
       <c r="M168" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>+</v>
-      </c>
-      <c r="N168" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Molson Canadian 28B +$4.5 to $43.49</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14" ht="15.5">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" ht="15.5">
       <c r="A169" s="14">
         <v>2109048</v>
       </c>
@@ -8761,19 +8125,15 @@
         <v>4.99</v>
       </c>
       <c r="L169" s="1" t="str">
-        <f t="shared" ref="L169:L190" si="15">IF(F169&gt;355,"TC",LEFT(E169,1))</f>
+        <f t="shared" ref="L169:L190" si="10">IF(F169&gt;355,"TC",LEFT(E169,1))</f>
         <v>TC</v>
       </c>
       <c r="M169" s="1" t="str">
-        <f t="shared" ref="M169:M190" si="16">IF(K169&gt;0,"+","-")</f>
-        <v>+</v>
-      </c>
-      <c r="N169" s="1" t="str">
-        <f t="shared" ref="N169:N190" si="17">PROPER($D169)&amp;" "&amp;$H169&amp;$L169&amp;" "&amp;$M169&amp;"$"&amp;ABS($K169)&amp;" to $"&amp;$J169</f>
-        <v>Asahi Super Dry 1TC +$4.99 to $123</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14" ht="15.5">
+        <f t="shared" ref="M169:M190" si="11">IF(K169&gt;0,"+","-")</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" ht="15.5">
       <c r="A170" s="14">
         <v>1709112</v>
       </c>
@@ -8808,19 +8168,15 @@
         <v>5</v>
       </c>
       <c r="L170" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M170" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N170" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Beau'S Lug Tread 48TC +$5 to $115.99</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" ht="15.5">
       <c r="A171" s="14">
         <v>1250013</v>
       </c>
@@ -8855,19 +8211,15 @@
         <v>5</v>
       </c>
       <c r="L171" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="M171" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N171" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Peroni 24B +$5 to $49.99</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" ht="15.5">
       <c r="A172" s="14">
         <v>3879041</v>
       </c>
@@ -8902,19 +8254,15 @@
         <v>5</v>
       </c>
       <c r="L172" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M172" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N172" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Gone Fishin Light 24TC +$5 to $58.99</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" ht="15.5">
       <c r="A173" s="14">
         <v>3154041</v>
       </c>
@@ -8949,19 +8297,15 @@
         <v>5</v>
       </c>
       <c r="L173" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M173" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N173" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Longhorn Lager 24TC +$5 to $59.99</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" ht="15.5">
       <c r="A174" s="14">
         <v>1143013</v>
       </c>
@@ -8996,19 +8340,15 @@
         <v>5</v>
       </c>
       <c r="L174" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="M174" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N174" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Heineken Nv 24B +$5 to $49.99</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" ht="15.5">
       <c r="A175" s="14">
         <v>1041172</v>
       </c>
@@ -9043,19 +8383,15 @@
         <v>5</v>
       </c>
       <c r="L175" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M175" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N175" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Bud Light 30C +$5 to $50.99</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" ht="15.5">
       <c r="A176" s="14">
         <v>3916041</v>
       </c>
@@ -9090,19 +8426,15 @@
         <v>5</v>
       </c>
       <c r="L176" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M176" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N176" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Bud Light Lemon Lime 24TC +$5 to $57.49</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" ht="15.5">
       <c r="A177" s="14">
         <v>3919033</v>
       </c>
@@ -9137,19 +8469,15 @@
         <v>5</v>
       </c>
       <c r="L177" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M177" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N177" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Bud Light Lime Time 24C +$5 to $49.99</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15.5">
       <c r="A178" s="14">
         <v>2598013</v>
       </c>
@@ -9184,19 +8512,15 @@
         <v>5</v>
       </c>
       <c r="L178" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>B</v>
       </c>
       <c r="M178" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N178" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Stella Artois 24B +$5 to $49.99</v>
-      </c>
-    </row>
-    <row r="179" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" ht="15.5">
       <c r="A179" s="14">
         <v>1060172</v>
       </c>
@@ -9231,19 +8555,15 @@
         <v>5</v>
       </c>
       <c r="L179" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M179" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N179" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Coors Light 30C +$5 to $50.99</v>
-      </c>
-    </row>
-    <row r="180" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" ht="15.5">
       <c r="A180" s="14">
         <v>1065091</v>
       </c>
@@ -9278,19 +8598,15 @@
         <v>5</v>
       </c>
       <c r="L180" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M180" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N180" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Steam Whistle 1TC +$5 to $145.95</v>
-      </c>
-    </row>
-    <row r="181" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" ht="15.5">
       <c r="A181" s="14">
         <v>1065091</v>
       </c>
@@ -9325,19 +8641,15 @@
         <v>5</v>
       </c>
       <c r="L181" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M181" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N181" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Steam Whistle 1TC +$5 to $145.95</v>
-      </c>
-    </row>
-    <row r="182" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" ht="15.5">
       <c r="A182" s="14">
         <v>3891482</v>
       </c>
@@ -9372,19 +8684,15 @@
         <v>5.7</v>
       </c>
       <c r="L182" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M182" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N182" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Heineken Silver 24C +$5.7 to $50.69</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" ht="15.5">
       <c r="A183" s="14">
         <v>1873172</v>
       </c>
@@ -9419,19 +8727,15 @@
         <v>6</v>
       </c>
       <c r="L183" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M183" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N183" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Miller Lite 30C +$6 to $51.99</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15.5">
       <c r="A184" s="14">
         <v>1933621</v>
       </c>
@@ -9466,19 +8770,15 @@
         <v>6.24</v>
       </c>
       <c r="L184" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M184" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N184" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Delirium Red 1TC +$6.24 to $214.16</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="15.5">
       <c r="A185" s="14">
         <v>3715041</v>
       </c>
@@ -9513,19 +8813,15 @@
         <v>7</v>
       </c>
       <c r="L185" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M185" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N185" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Rough Stock Ipa 24TC +$7 to $69.99</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="15.5">
       <c r="A186" s="14">
         <v>1599211</v>
       </c>
@@ -9560,19 +8856,15 @@
         <v>8</v>
       </c>
       <c r="L186" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M186" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N186" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Muskoka Detour 48C +$8 to $94.99</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="15.5">
       <c r="A187" s="14">
         <v>1709211</v>
       </c>
@@ -9607,19 +8899,15 @@
         <v>10</v>
       </c>
       <c r="L187" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M187" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N187" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Beau'S Lug Tread 48C +$10 to $94.79</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="15.5">
       <c r="A188" s="14">
         <v>1496224</v>
       </c>
@@ -9654,19 +8942,15 @@
         <v>10</v>
       </c>
       <c r="L188" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M188" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N188" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Pabst Blue Ribbon 60C +$10 to $90.99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="15.5">
       <c r="A189" s="14">
         <v>1065211</v>
       </c>
@@ -9701,19 +8985,15 @@
         <v>10</v>
       </c>
       <c r="L189" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>C</v>
       </c>
       <c r="M189" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N189" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Steam Whistle 48C +$10 to $92.99</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" ht="15.5">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="15.5">
       <c r="A190" s="14">
         <v>1363130</v>
       </c>
@@ -9748,16 +9028,12 @@
         <v>59.82</v>
       </c>
       <c r="L190" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>TC</v>
       </c>
       <c r="M190" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>+</v>
-      </c>
-      <c r="N190" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>Benediktiner Weiss 24TC +$59.82 to $59.82</v>
+        <f t="shared" si="11"/>
+        <v>+</v>
       </c>
     </row>
   </sheetData>
@@ -9787,26 +9063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -10061,26 +9317,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
-    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10097,4 +9354,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
+    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C885A2A2-B20F-4A7E-AC66-39CC62CDDFB2}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD627089-1BF2-49B1-9DA7-400BD470F0FC}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -768,8 +768,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88106" y="152400"/>
-          <a:ext cx="1379536" cy="1023397"/>
+          <a:off x="88106" y="136525"/>
+          <a:ext cx="1426872" cy="999152"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,7 +1070,7 @@
   </sheetPr>
   <dimension ref="A1:M190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -9063,6 +9063,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9317,15 +9326,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9338,6 +9338,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9356,14 +9364,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>

--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD627089-1BF2-49B1-9DA7-400BD470F0FC}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8688984F-F840-426D-A332-127946D5E281}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Price Change Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Change Summary Report'!$A$8:$M$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Change Summary Report'!$A$8:$L$190</definedName>
     <definedName name="DF_NAVPANEL_13" localSheetId="0">#REF!</definedName>
     <definedName name="DF_NAVPANEL_18" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Price Change Summary Report'!$8:$8</definedName>
@@ -1065,13 +1065,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C184" sqref="C161:C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -1210,7 +1211,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5">
+    <row r="9" spans="1:13" ht="15.5" hidden="1">
       <c r="A9" s="14">
         <v>1065365</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5">
+    <row r="10" spans="1:13" ht="15.5" hidden="1">
       <c r="A10" s="14">
         <v>1129130</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5">
+    <row r="11" spans="1:13" ht="15.5" hidden="1">
       <c r="A11" s="14">
         <v>2042611</v>
       </c>
@@ -1339,7 +1340,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5">
+    <row r="12" spans="1:13" ht="15.5" hidden="1">
       <c r="A12" s="14">
         <v>3353211</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5">
+    <row r="13" spans="1:13" ht="15.5" hidden="1">
       <c r="A13" s="14">
         <v>2503211</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5">
+    <row r="16" spans="1:13" ht="15.5" hidden="1">
       <c r="A16" s="14">
         <v>1617224</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5">
+    <row r="17" spans="1:13" ht="15.5" hidden="1">
       <c r="A17" s="14">
         <v>1035172</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5">
+    <row r="18" spans="1:13" ht="15.5" hidden="1">
       <c r="A18" s="14">
         <v>3891013</v>
       </c>
@@ -1640,7 +1641,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5">
+    <row r="19" spans="1:13" ht="15.5" hidden="1">
       <c r="A19" s="14">
         <v>1465033</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.5">
+    <row r="20" spans="1:13" ht="15.5" hidden="1">
       <c r="A20" s="14">
         <v>3583348</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.5">
+    <row r="21" spans="1:13" ht="15.5" hidden="1">
       <c r="A21" s="14">
         <v>3582348</v>
       </c>
@@ -1769,7 +1770,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5">
+    <row r="22" spans="1:13" ht="15.5" hidden="1">
       <c r="A22" s="14">
         <v>1504172</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5">
+    <row r="23" spans="1:13" ht="15.5" hidden="1">
       <c r="A23" s="14">
         <v>2341172</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5">
+    <row r="24" spans="1:13" ht="15.5" hidden="1">
       <c r="A24" s="14">
         <v>3353033</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5">
+    <row r="25" spans="1:13" ht="15.5" hidden="1">
       <c r="A25" s="14">
         <v>3879042</v>
       </c>
@@ -1941,7 +1942,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5">
+    <row r="26" spans="1:13" ht="15.5" hidden="1">
       <c r="A26" s="14">
         <v>3154042</v>
       </c>
@@ -1984,7 +1985,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.5">
+    <row r="27" spans="1:13" ht="15.5" hidden="1">
       <c r="A27" s="14">
         <v>3715042</v>
       </c>
@@ -2027,7 +2028,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5">
+    <row r="28" spans="1:13" ht="15.5" hidden="1">
       <c r="A28" s="14">
         <v>1090033</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5">
+    <row r="29" spans="1:13" ht="15.5" hidden="1">
       <c r="A29" s="14">
         <v>1060100</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5">
+    <row r="30" spans="1:13" ht="15.5" hidden="1">
       <c r="A30" s="14">
         <v>1879055</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5">
+    <row r="31" spans="1:13" ht="15.5" hidden="1">
       <c r="A31" s="14">
         <v>1873005</v>
       </c>
@@ -2199,7 +2200,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5">
+    <row r="32" spans="1:13" ht="15.5" hidden="1">
       <c r="A32" s="14">
         <v>1599033</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.5">
+    <row r="34" spans="1:13" ht="15.5" hidden="1">
       <c r="A34" s="14">
         <v>1584041</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.5">
+    <row r="36" spans="1:13" ht="15.5" hidden="1">
       <c r="A36" s="14">
         <v>2022041</v>
       </c>
@@ -2414,7 +2415,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.5">
+    <row r="37" spans="1:13" ht="15.5" hidden="1">
       <c r="A37" s="14">
         <v>1065356</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5">
+    <row r="38" spans="1:13" ht="15.5" hidden="1">
       <c r="A38" s="14">
         <v>1448041</v>
       </c>
@@ -2500,7 +2501,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5">
+    <row r="39" spans="1:13" ht="15.5" hidden="1">
       <c r="A39" s="14">
         <v>2042051</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5">
+    <row r="40" spans="1:13" ht="15.5" hidden="1">
       <c r="A40" s="14">
         <v>1319055</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5">
+    <row r="41" spans="1:13" ht="15.5" hidden="1">
       <c r="A41" s="14">
         <v>1045172</v>
       </c>
@@ -2629,7 +2630,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5">
+    <row r="42" spans="1:13" ht="15.5" hidden="1">
       <c r="A42" s="14">
         <v>1026100</v>
       </c>
@@ -2672,7 +2673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5">
+    <row r="43" spans="1:13" ht="15.5" hidden="1">
       <c r="A43" s="14">
         <v>1030172</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5">
+    <row r="44" spans="1:13" ht="15.5" hidden="1">
       <c r="A44" s="14">
         <v>1056172</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5">
+    <row r="45" spans="1:13" ht="15.5" hidden="1">
       <c r="A45" s="14">
         <v>1628172</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5">
+    <row r="46" spans="1:13" ht="15.5" hidden="1">
       <c r="A46" s="14">
         <v>1490005</v>
       </c>
@@ -2844,7 +2845,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5">
+    <row r="47" spans="1:13" ht="15.5" hidden="1">
       <c r="A47" s="14">
         <v>3353031</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5">
+    <row r="48" spans="1:13" ht="15.5" hidden="1">
       <c r="A48" s="14">
         <v>3888033</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5">
+    <row r="49" spans="1:13" ht="15.5" hidden="1">
       <c r="A49" s="14">
         <v>1041042</v>
       </c>
@@ -2973,7 +2974,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5">
+    <row r="50" spans="1:13" ht="15.5" hidden="1">
       <c r="A50" s="14">
         <v>2598042</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5">
+    <row r="51" spans="1:13" ht="15.5" hidden="1">
       <c r="A51" s="14">
         <v>3666031</v>
       </c>
@@ -3059,7 +3060,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5">
+    <row r="52" spans="1:13" ht="15.5" hidden="1">
       <c r="A52" s="14">
         <v>3654427</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5">
+    <row r="53" spans="1:13" ht="15.5" hidden="1">
       <c r="A53" s="14">
         <v>1056042</v>
       </c>
@@ -3145,7 +3146,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5">
+    <row r="54" spans="1:13" ht="15.5" hidden="1">
       <c r="A54" s="14">
         <v>3668427</v>
       </c>
@@ -3188,7 +3189,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5">
+    <row r="55" spans="1:13" ht="15.5" hidden="1">
       <c r="A55" s="14">
         <v>1595031</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5">
+    <row r="56" spans="1:13" ht="15.5" hidden="1">
       <c r="A56" s="14">
         <v>1594031</v>
       </c>
@@ -3274,7 +3275,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5">
+    <row r="57" spans="1:13" ht="15.5" hidden="1">
       <c r="A57" s="14">
         <v>3962031</v>
       </c>
@@ -3317,7 +3318,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5">
+    <row r="58" spans="1:13" ht="15.5" hidden="1">
       <c r="A58" s="14">
         <v>1491223</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5">
+    <row r="59" spans="1:13" ht="15.5" hidden="1">
       <c r="A59" s="14">
         <v>1491042</v>
       </c>
@@ -3403,7 +3404,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5">
+    <row r="60" spans="1:13" ht="15.5" hidden="1">
       <c r="A60" s="14">
         <v>3410031</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5">
+    <row r="61" spans="1:13" ht="15.5" hidden="1">
       <c r="A61" s="14">
         <v>2042291</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5">
+    <row r="62" spans="1:13" ht="15.5" hidden="1">
       <c r="A62" s="14">
         <v>1056041</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5">
+    <row r="63" spans="1:13" ht="15.5" hidden="1">
       <c r="A63" s="14">
         <v>1491041</v>
       </c>
@@ -3575,7 +3576,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5">
+    <row r="64" spans="1:13" ht="15.5" hidden="1">
       <c r="A64" s="14">
         <v>1525038</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.5">
+    <row r="65" spans="1:13" ht="15.5" hidden="1">
       <c r="A65" s="14">
         <v>3879038</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.5">
+    <row r="66" spans="1:13" ht="15.5" hidden="1">
       <c r="A66" s="14">
         <v>3154038</v>
       </c>
@@ -3704,7 +3705,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.5">
+    <row r="67" spans="1:13" ht="15.5" hidden="1">
       <c r="A67" s="14">
         <v>3715038</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.5">
+    <row r="68" spans="1:13" ht="15.5" hidden="1">
       <c r="A68" s="14">
         <v>3775038</v>
       </c>
@@ -3790,7 +3791,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.5">
+    <row r="69" spans="1:13" ht="15.5" hidden="1">
       <c r="A69" s="14">
         <v>1628031</v>
       </c>
@@ -3833,7 +3834,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.5">
+    <row r="70" spans="1:13" ht="15.5" hidden="1">
       <c r="A70" s="14">
         <v>1491038</v>
       </c>
@@ -3876,7 +3877,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.5">
+    <row r="71" spans="1:13" ht="15.5" hidden="1">
       <c r="A71" s="14">
         <v>1448038</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.5">
+    <row r="72" spans="1:13" ht="15.5" hidden="1">
       <c r="A72" s="14">
         <v>2042290</v>
       </c>
@@ -3962,7 +3963,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.5">
+    <row r="73" spans="1:13" ht="15.5" hidden="1">
       <c r="A73" s="14">
         <v>3537296</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.5">
+    <row r="74" spans="1:13" ht="15.5" hidden="1">
       <c r="A74" s="14">
         <v>2042024</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.5">
+    <row r="75" spans="1:13" ht="15.5" hidden="1">
       <c r="A75" s="14">
         <v>2084100</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.5">
+    <row r="76" spans="1:13" ht="15.5" hidden="1">
       <c r="A76" s="14">
         <v>2085100</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.5">
+    <row r="77" spans="1:13" ht="15.5" hidden="1">
       <c r="A77" s="14">
         <v>2597355</v>
       </c>
@@ -4177,7 +4178,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.5">
+    <row r="78" spans="1:13" ht="15.5" hidden="1">
       <c r="A78" s="14">
         <v>1629042</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.5">
+    <row r="79" spans="1:13" ht="15.5" hidden="1">
       <c r="A79" s="14">
         <v>1628042</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.5">
+    <row r="80" spans="1:13" ht="15.5" hidden="1">
       <c r="A80" s="14">
         <v>1041031</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.5">
+    <row r="81" spans="1:13" ht="15.5" hidden="1">
       <c r="A81" s="14">
         <v>1035031</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.5">
+    <row r="82" spans="1:13" ht="15.5" hidden="1">
       <c r="A82" s="14">
         <v>2598012</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.5">
+    <row r="83" spans="1:13" ht="15.5" hidden="1">
       <c r="A83" s="14">
         <v>1448004</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.5">
+    <row r="84" spans="1:13" ht="15.5" hidden="1">
       <c r="A84" s="14">
         <v>1119063</v>
       </c>
@@ -4478,7 +4479,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.5">
+    <row r="85" spans="1:13" ht="15.5" hidden="1">
       <c r="A85" s="14">
         <v>2662063</v>
       </c>
@@ -4521,7 +4522,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.5">
+    <row r="86" spans="1:13" ht="15.5" hidden="1">
       <c r="A86" s="14">
         <v>1161063</v>
       </c>
@@ -4564,7 +4565,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.5">
+    <row r="87" spans="1:13" ht="15.5" hidden="1">
       <c r="A87" s="14">
         <v>1632038</v>
       </c>
@@ -4607,7 +4608,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.5">
+    <row r="88" spans="1:13" ht="15.5" hidden="1">
       <c r="A88" s="14">
         <v>1629038</v>
       </c>
@@ -4650,7 +4651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.5">
+    <row r="89" spans="1:13" ht="15.5" hidden="1">
       <c r="A89" s="14">
         <v>1628038</v>
       </c>
@@ -4693,7 +4694,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.5">
+    <row r="90" spans="1:13" ht="15.5" hidden="1">
       <c r="A90" s="14">
         <v>1219063</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.5">
+    <row r="91" spans="1:13" ht="15.5" hidden="1">
       <c r="A91" s="14">
         <v>3452004</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.5">
+    <row r="92" spans="1:13" ht="15.5" hidden="1">
       <c r="A92" s="14">
         <v>1620004</v>
       </c>
@@ -4822,7 +4823,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.5">
+    <row r="93" spans="1:13" ht="15.5" hidden="1">
       <c r="A93" s="14">
         <v>1194063</v>
       </c>
@@ -4865,7 +4866,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.5">
+    <row r="94" spans="1:13" ht="15.5" hidden="1">
       <c r="A94" s="14">
         <v>3154004</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.5">
+    <row r="95" spans="1:13" ht="15.5" hidden="1">
       <c r="A95" s="14">
         <v>1624004</v>
       </c>
@@ -4951,7 +4952,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.5">
+    <row r="96" spans="1:13" ht="15.5" hidden="1">
       <c r="A96" s="14">
         <v>2975004</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.5">
+    <row r="97" spans="1:13" ht="15.5" hidden="1">
       <c r="A97" s="14">
         <v>3715004</v>
       </c>
@@ -5080,7 +5081,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.5">
+    <row r="99" spans="1:13" ht="15.5" hidden="1">
       <c r="A99" s="14">
         <v>1584004</v>
       </c>
@@ -5123,7 +5124,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.5">
+    <row r="100" spans="1:13" ht="15.5" hidden="1">
       <c r="A100" s="14">
         <v>1617173</v>
       </c>
@@ -5166,7 +5167,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.5">
+    <row r="101" spans="1:13" ht="15.5" hidden="1">
       <c r="A101" s="14">
         <v>1631173</v>
       </c>
@@ -5209,7 +5210,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.5">
+    <row r="102" spans="1:13" ht="15.5" hidden="1">
       <c r="A102" s="14">
         <v>1065002</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.5">
+    <row r="103" spans="1:13" ht="15.5" hidden="1">
       <c r="A103" s="14">
         <v>1709306</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.5">
+    <row r="104" spans="1:13" ht="15.5" hidden="1">
       <c r="A104" s="14">
         <v>1065306</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.5">
+    <row r="105" spans="1:13" ht="15.5" hidden="1">
       <c r="A105" s="14">
         <v>1208130</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.5">
+    <row r="106" spans="1:13" ht="15.5" hidden="1">
       <c r="A106" s="14">
         <v>1617172</v>
       </c>
@@ -5424,7 +5425,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.5">
+    <row r="107" spans="1:13" ht="15.5" hidden="1">
       <c r="A107" s="14">
         <v>3878038</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.5">
+    <row r="108" spans="1:13" ht="15.5" hidden="1">
       <c r="A108" s="14">
         <v>3718038</v>
       </c>
@@ -5510,7 +5511,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.5">
+    <row r="109" spans="1:13" ht="15.5" hidden="1">
       <c r="A109" s="14">
         <v>2662128</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.5">
+    <row r="110" spans="1:13" ht="15.5" hidden="1">
       <c r="A110" s="14">
         <v>3261128</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.5">
+    <row r="111" spans="1:13" ht="15.5" hidden="1">
       <c r="A111" s="14">
         <v>1161128</v>
       </c>
@@ -5639,7 +5640,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.5">
+    <row r="112" spans="1:13" ht="15.5" hidden="1">
       <c r="A112" s="14">
         <v>1497038</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.5">
+    <row r="113" spans="1:13" ht="15.5" hidden="1">
       <c r="A113" s="14">
         <v>3849030</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.5">
+    <row r="115" spans="1:13" ht="15.5" hidden="1">
       <c r="A115" s="14">
         <v>1167128</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.5">
+    <row r="116" spans="1:13" ht="15.5" hidden="1">
       <c r="A116" s="14">
         <v>1497041</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.5">
+    <row r="117" spans="1:13" ht="15.5" hidden="1">
       <c r="A117" s="14">
         <v>1060041</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.5">
+    <row r="118" spans="1:13" ht="15.5" hidden="1">
       <c r="A118" s="14">
         <v>1595038</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.5">
+    <row r="119" spans="1:13" ht="15.5" hidden="1">
       <c r="A119" s="14">
         <v>1416038</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.5">
+    <row r="120" spans="1:13" ht="15.5" hidden="1">
       <c r="A120" s="14">
         <v>1425038</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.5">
+    <row r="121" spans="1:13" ht="15.5" hidden="1">
       <c r="A121" s="14">
         <v>1035042</v>
       </c>
@@ -6069,7 +6070,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.5">
+    <row r="122" spans="1:13" ht="15.5" hidden="1">
       <c r="A122" s="14">
         <v>2597354</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.5">
+    <row r="123" spans="1:13" ht="15.5" hidden="1">
       <c r="A123" s="14">
         <v>1497042</v>
       </c>
@@ -6155,7 +6156,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.5">
+    <row r="124" spans="1:13" ht="15.5" hidden="1">
       <c r="A124" s="14">
         <v>3879156</v>
       </c>
@@ -6198,7 +6199,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.5">
+    <row r="125" spans="1:13" ht="15.5" hidden="1">
       <c r="A125" s="14">
         <v>3154156</v>
       </c>
@@ -6241,7 +6242,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.5">
+    <row r="126" spans="1:13" ht="15.5" hidden="1">
       <c r="A126" s="14">
         <v>3715156</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.5">
+    <row r="127" spans="1:13" ht="15.5" hidden="1">
       <c r="A127" s="14">
         <v>3916042</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.5">
+    <row r="128" spans="1:13" ht="15.5" hidden="1">
       <c r="A128" s="14">
         <v>3919031</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.5">
+    <row r="129" spans="1:13" ht="15.5" hidden="1">
       <c r="A129" s="14">
         <v>3915042</v>
       </c>
@@ -6413,7 +6414,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.5">
+    <row r="130" spans="1:13" ht="15.5" hidden="1">
       <c r="A130" s="14">
         <v>3168031</v>
       </c>
@@ -6456,7 +6457,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.5">
+    <row r="131" spans="1:13" ht="15.5" hidden="1">
       <c r="A131" s="14">
         <v>1060042</v>
       </c>
@@ -6499,7 +6500,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.5">
+    <row r="132" spans="1:13" ht="15.5" hidden="1">
       <c r="A132" s="14">
         <v>2341042</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.5">
+    <row r="133" spans="1:13" ht="15.5" hidden="1">
       <c r="A133" s="14">
         <v>3867427</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.5">
+    <row r="134" spans="1:13" ht="15.5" hidden="1">
       <c r="A134" s="14">
         <v>1465042</v>
       </c>
@@ -6628,7 +6629,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.5">
+    <row r="135" spans="1:13" ht="15.5" hidden="1">
       <c r="A135" s="14">
         <v>3870427</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.5">
+    <row r="136" spans="1:13" ht="15.5" hidden="1">
       <c r="A136" s="14">
         <v>3866427</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.5">
+    <row r="137" spans="1:13" ht="15.5" hidden="1">
       <c r="A137" s="14">
         <v>1628224</v>
       </c>
@@ -6800,7 +6801,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.5">
+    <row r="139" spans="1:13" ht="15.5" hidden="1">
       <c r="A139" s="14">
         <v>3839028</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.5">
+    <row r="140" spans="1:13" ht="15.5" hidden="1">
       <c r="A140" s="14">
         <v>1879172</v>
       </c>
@@ -6886,7 +6887,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.5">
+    <row r="141" spans="1:13" ht="15.5" hidden="1">
       <c r="A141" s="14">
         <v>1879042</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.5">
+    <row r="142" spans="1:13" ht="15.5" hidden="1">
       <c r="A142" s="14">
         <v>3458038</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.5">
+    <row r="143" spans="1:13" ht="15.5" hidden="1">
       <c r="A143" s="14">
         <v>1709041</v>
       </c>
@@ -7015,7 +7016,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.5">
+    <row r="144" spans="1:13" ht="15.5" hidden="1">
       <c r="A144" s="14">
         <v>2597033</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.5">
+    <row r="145" spans="1:13" ht="15.5" hidden="1">
       <c r="A145" s="14">
         <v>1629041</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.5">
+    <row r="146" spans="1:13" ht="15.5" hidden="1">
       <c r="A146" s="14">
         <v>1628041</v>
       </c>
@@ -7144,7 +7145,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.5">
+    <row r="147" spans="1:13" ht="15.5" hidden="1">
       <c r="A147" s="14">
         <v>1489033</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.5">
+    <row r="148" spans="1:13" ht="15.5" hidden="1">
       <c r="A148" s="14">
         <v>1879041</v>
       </c>
@@ -7230,7 +7231,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.5">
+    <row r="149" spans="1:13" ht="15.5" hidden="1">
       <c r="A149" s="14">
         <v>2109013</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.5">
+    <row r="150" spans="1:13" ht="15.5" hidden="1">
       <c r="A150" s="14">
         <v>1709033</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.5">
+    <row r="151" spans="1:13" ht="15.5" hidden="1">
       <c r="A151" s="14">
         <v>3915041</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.5">
+    <row r="152" spans="1:13" ht="15.5" hidden="1">
       <c r="A152" s="14">
         <v>1090005</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.5">
+    <row r="153" spans="1:13" ht="15.5" hidden="1">
       <c r="A153" s="14">
         <v>3667418</v>
       </c>
@@ -7445,7 +7446,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.5">
+    <row r="154" spans="1:13" ht="15.5" hidden="1">
       <c r="A154" s="14">
         <v>1632033</v>
       </c>
@@ -7488,7 +7489,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.5">
+    <row r="155" spans="1:13" ht="15.5" hidden="1">
       <c r="A155" s="14">
         <v>1629033</v>
       </c>
@@ -7531,7 +7532,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.5">
+    <row r="156" spans="1:13" ht="15.5" hidden="1">
       <c r="A156" s="14">
         <v>1617041</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.5">
+    <row r="157" spans="1:13" ht="15.5" hidden="1">
       <c r="A157" s="14">
         <v>1628033</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.5">
+    <row r="158" spans="1:13" ht="15.5" hidden="1">
       <c r="A158" s="14">
         <v>1624033</v>
       </c>
@@ -7660,7 +7661,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.5">
+    <row r="159" spans="1:13" ht="15.5" hidden="1">
       <c r="A159" s="14">
         <v>1602033</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.5">
+    <row r="160" spans="1:13" ht="15.5" hidden="1">
       <c r="A160" s="14">
         <v>2503033</v>
       </c>
@@ -7789,7 +7790,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.5">
+    <row r="162" spans="1:13" ht="15.5" hidden="1">
       <c r="A162" s="14">
         <v>1585041</v>
       </c>
@@ -7875,7 +7876,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.5">
+    <row r="164" spans="1:13" ht="15.5" hidden="1">
       <c r="A164" s="14">
         <v>3703041</v>
       </c>
@@ -7918,7 +7919,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.5">
+    <row r="165" spans="1:13" ht="15.5" hidden="1">
       <c r="A165" s="14">
         <v>1065033</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.5">
+    <row r="166" spans="1:13" ht="15.5" hidden="1">
       <c r="A166" s="14">
         <v>2341041</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.5">
+    <row r="167" spans="1:13" ht="15.5" hidden="1">
       <c r="A167" s="14">
         <v>1046172</v>
       </c>
@@ -8047,7 +8048,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.5">
+    <row r="168" spans="1:13" ht="15.5" hidden="1">
       <c r="A168" s="14">
         <v>1056100</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.5">
+    <row r="170" spans="1:13" ht="15.5" hidden="1">
       <c r="A170" s="14">
         <v>1709112</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.5">
+    <row r="171" spans="1:13" ht="15.5" hidden="1">
       <c r="A171" s="14">
         <v>1250013</v>
       </c>
@@ -8219,7 +8220,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.5">
+    <row r="172" spans="1:13" ht="15.5" hidden="1">
       <c r="A172" s="14">
         <v>3879041</v>
       </c>
@@ -8262,7 +8263,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.5">
+    <row r="173" spans="1:13" ht="15.5" hidden="1">
       <c r="A173" s="14">
         <v>3154041</v>
       </c>
@@ -8305,7 +8306,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.5">
+    <row r="174" spans="1:13" ht="15.5" hidden="1">
       <c r="A174" s="14">
         <v>1143013</v>
       </c>
@@ -8348,7 +8349,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.5">
+    <row r="175" spans="1:13" ht="15.5" hidden="1">
       <c r="A175" s="14">
         <v>1041172</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.5">
+    <row r="176" spans="1:13" ht="15.5" hidden="1">
       <c r="A176" s="14">
         <v>3916041</v>
       </c>
@@ -8434,7 +8435,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.5">
+    <row r="177" spans="1:13" ht="15.5" hidden="1">
       <c r="A177" s="14">
         <v>3919033</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.5">
+    <row r="178" spans="1:13" ht="15.5" hidden="1">
       <c r="A178" s="14">
         <v>2598013</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.5">
+    <row r="179" spans="1:13" ht="15.5" hidden="1">
       <c r="A179" s="14">
         <v>1060172</v>
       </c>
@@ -8606,7 +8607,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.5">
+    <row r="181" spans="1:13" ht="15.5" hidden="1">
       <c r="A181" s="14">
         <v>1065091</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.5">
+    <row r="182" spans="1:13" ht="15.5" hidden="1">
       <c r="A182" s="14">
         <v>3891482</v>
       </c>
@@ -8692,7 +8693,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.5">
+    <row r="183" spans="1:13" ht="15.5" hidden="1">
       <c r="A183" s="14">
         <v>1873172</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.5">
+    <row r="185" spans="1:13" ht="15.5" hidden="1">
       <c r="A185" s="14">
         <v>3715041</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.5">
+    <row r="186" spans="1:13" ht="15.5" hidden="1">
       <c r="A186" s="14">
         <v>1599211</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.5">
+    <row r="187" spans="1:13" ht="15.5" hidden="1">
       <c r="A187" s="14">
         <v>1709211</v>
       </c>
@@ -8907,7 +8908,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.5">
+    <row r="188" spans="1:13" ht="15.5" hidden="1">
       <c r="A188" s="14">
         <v>1496224</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.5">
+    <row r="189" spans="1:13" ht="15.5" hidden="1">
       <c r="A189" s="14">
         <v>1065211</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.5">
+    <row r="190" spans="1:13" ht="15.5" hidden="1">
       <c r="A190" s="14">
         <v>1363130</v>
       </c>
@@ -9037,6 +9038,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TBS - Licensee"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9063,15 +9071,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9326,6 +9325,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9338,14 +9346,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9364,6 +9364,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>

--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8688984F-F840-426D-A332-127946D5E281}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7723D4F6-A632-4E6A-B77F-EB0EB3408CA2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -1065,14 +1065,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-  <sheetPr codeName="Sheet4" filterMode="1">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C184" sqref="C161:C184"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -1211,7 +1211,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5" hidden="1">
+    <row r="9" spans="1:13" ht="15.5">
       <c r="A9" s="14">
         <v>1065365</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5" hidden="1">
+    <row r="10" spans="1:13" ht="15.5">
       <c r="A10" s="14">
         <v>1129130</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5" hidden="1">
+    <row r="11" spans="1:13" ht="15.5">
       <c r="A11" s="14">
         <v>2042611</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5" hidden="1">
+    <row r="12" spans="1:13" ht="15.5">
       <c r="A12" s="14">
         <v>3353211</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5" hidden="1">
+    <row r="13" spans="1:13" ht="15.5">
       <c r="A13" s="14">
         <v>2503211</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5" hidden="1">
+    <row r="16" spans="1:13" ht="15.5">
       <c r="A16" s="14">
         <v>1617224</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5" hidden="1">
+    <row r="17" spans="1:13" ht="15.5">
       <c r="A17" s="14">
         <v>1035172</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5" hidden="1">
+    <row r="18" spans="1:13" ht="15.5">
       <c r="A18" s="14">
         <v>3891013</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5" hidden="1">
+    <row r="19" spans="1:13" ht="15.5">
       <c r="A19" s="14">
         <v>1465033</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.5" hidden="1">
+    <row r="20" spans="1:13" ht="15.5">
       <c r="A20" s="14">
         <v>3583348</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.5" hidden="1">
+    <row r="21" spans="1:13" ht="15.5">
       <c r="A21" s="14">
         <v>3582348</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5" hidden="1">
+    <row r="22" spans="1:13" ht="15.5">
       <c r="A22" s="14">
         <v>1504172</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5" hidden="1">
+    <row r="23" spans="1:13" ht="15.5">
       <c r="A23" s="14">
         <v>2341172</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5" hidden="1">
+    <row r="24" spans="1:13" ht="15.5">
       <c r="A24" s="14">
         <v>3353033</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5" hidden="1">
+    <row r="25" spans="1:13" ht="15.5">
       <c r="A25" s="14">
         <v>3879042</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5" hidden="1">
+    <row r="26" spans="1:13" ht="15.5">
       <c r="A26" s="14">
         <v>3154042</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.5" hidden="1">
+    <row r="27" spans="1:13" ht="15.5">
       <c r="A27" s="14">
         <v>3715042</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5" hidden="1">
+    <row r="28" spans="1:13" ht="15.5">
       <c r="A28" s="14">
         <v>1090033</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5" hidden="1">
+    <row r="29" spans="1:13" ht="15.5">
       <c r="A29" s="14">
         <v>1060100</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5" hidden="1">
+    <row r="30" spans="1:13" ht="15.5">
       <c r="A30" s="14">
         <v>1879055</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5" hidden="1">
+    <row r="31" spans="1:13" ht="15.5">
       <c r="A31" s="14">
         <v>1873005</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5" hidden="1">
+    <row r="32" spans="1:13" ht="15.5">
       <c r="A32" s="14">
         <v>1599033</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.5" hidden="1">
+    <row r="34" spans="1:13" ht="15.5">
       <c r="A34" s="14">
         <v>1584041</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.5" hidden="1">
+    <row r="36" spans="1:13" ht="15.5">
       <c r="A36" s="14">
         <v>2022041</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.5" hidden="1">
+    <row r="37" spans="1:13" ht="15.5">
       <c r="A37" s="14">
         <v>1065356</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5" hidden="1">
+    <row r="38" spans="1:13" ht="15.5">
       <c r="A38" s="14">
         <v>1448041</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5" hidden="1">
+    <row r="39" spans="1:13" ht="15.5">
       <c r="A39" s="14">
         <v>2042051</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5" hidden="1">
+    <row r="40" spans="1:13" ht="15.5">
       <c r="A40" s="14">
         <v>1319055</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5" hidden="1">
+    <row r="41" spans="1:13" ht="15.5">
       <c r="A41" s="14">
         <v>1045172</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5" hidden="1">
+    <row r="42" spans="1:13" ht="15.5">
       <c r="A42" s="14">
         <v>1026100</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5" hidden="1">
+    <row r="43" spans="1:13" ht="15.5">
       <c r="A43" s="14">
         <v>1030172</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5" hidden="1">
+    <row r="44" spans="1:13" ht="15.5">
       <c r="A44" s="14">
         <v>1056172</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5" hidden="1">
+    <row r="45" spans="1:13" ht="15.5">
       <c r="A45" s="14">
         <v>1628172</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5" hidden="1">
+    <row r="46" spans="1:13" ht="15.5">
       <c r="A46" s="14">
         <v>1490005</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5" hidden="1">
+    <row r="47" spans="1:13" ht="15.5">
       <c r="A47" s="14">
         <v>3353031</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5" hidden="1">
+    <row r="48" spans="1:13" ht="15.5">
       <c r="A48" s="14">
         <v>3888033</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5" hidden="1">
+    <row r="49" spans="1:13" ht="15.5">
       <c r="A49" s="14">
         <v>1041042</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5" hidden="1">
+    <row r="50" spans="1:13" ht="15.5">
       <c r="A50" s="14">
         <v>2598042</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5" hidden="1">
+    <row r="51" spans="1:13" ht="15.5">
       <c r="A51" s="14">
         <v>3666031</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5" hidden="1">
+    <row r="52" spans="1:13" ht="15.5">
       <c r="A52" s="14">
         <v>3654427</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5" hidden="1">
+    <row r="53" spans="1:13" ht="15.5">
       <c r="A53" s="14">
         <v>1056042</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5" hidden="1">
+    <row r="54" spans="1:13" ht="15.5">
       <c r="A54" s="14">
         <v>3668427</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5" hidden="1">
+    <row r="55" spans="1:13" ht="15.5">
       <c r="A55" s="14">
         <v>1595031</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5" hidden="1">
+    <row r="56" spans="1:13" ht="15.5">
       <c r="A56" s="14">
         <v>1594031</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5" hidden="1">
+    <row r="57" spans="1:13" ht="15.5">
       <c r="A57" s="14">
         <v>3962031</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5" hidden="1">
+    <row r="58" spans="1:13" ht="15.5">
       <c r="A58" s="14">
         <v>1491223</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5" hidden="1">
+    <row r="59" spans="1:13" ht="15.5">
       <c r="A59" s="14">
         <v>1491042</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5" hidden="1">
+    <row r="60" spans="1:13" ht="15.5">
       <c r="A60" s="14">
         <v>3410031</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5" hidden="1">
+    <row r="61" spans="1:13" ht="15.5">
       <c r="A61" s="14">
         <v>2042291</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5" hidden="1">
+    <row r="62" spans="1:13" ht="15.5">
       <c r="A62" s="14">
         <v>1056041</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5" hidden="1">
+    <row r="63" spans="1:13" ht="15.5">
       <c r="A63" s="14">
         <v>1491041</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5" hidden="1">
+    <row r="64" spans="1:13" ht="15.5">
       <c r="A64" s="14">
         <v>1525038</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.5" hidden="1">
+    <row r="65" spans="1:13" ht="15.5">
       <c r="A65" s="14">
         <v>3879038</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.5" hidden="1">
+    <row r="66" spans="1:13" ht="15.5">
       <c r="A66" s="14">
         <v>3154038</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.5" hidden="1">
+    <row r="67" spans="1:13" ht="15.5">
       <c r="A67" s="14">
         <v>3715038</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.5" hidden="1">
+    <row r="68" spans="1:13" ht="15.5">
       <c r="A68" s="14">
         <v>3775038</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.5" hidden="1">
+    <row r="69" spans="1:13" ht="15.5">
       <c r="A69" s="14">
         <v>1628031</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.5" hidden="1">
+    <row r="70" spans="1:13" ht="15.5">
       <c r="A70" s="14">
         <v>1491038</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.5" hidden="1">
+    <row r="71" spans="1:13" ht="15.5">
       <c r="A71" s="14">
         <v>1448038</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.5" hidden="1">
+    <row r="72" spans="1:13" ht="15.5">
       <c r="A72" s="14">
         <v>2042290</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.5" hidden="1">
+    <row r="73" spans="1:13" ht="15.5">
       <c r="A73" s="14">
         <v>3537296</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.5" hidden="1">
+    <row r="74" spans="1:13" ht="15.5">
       <c r="A74" s="14">
         <v>2042024</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.5" hidden="1">
+    <row r="75" spans="1:13" ht="15.5">
       <c r="A75" s="14">
         <v>2084100</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.5" hidden="1">
+    <row r="76" spans="1:13" ht="15.5">
       <c r="A76" s="14">
         <v>2085100</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.5" hidden="1">
+    <row r="77" spans="1:13" ht="15.5">
       <c r="A77" s="14">
         <v>2597355</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.5" hidden="1">
+    <row r="78" spans="1:13" ht="15.5">
       <c r="A78" s="14">
         <v>1629042</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.5" hidden="1">
+    <row r="79" spans="1:13" ht="15.5">
       <c r="A79" s="14">
         <v>1628042</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.5" hidden="1">
+    <row r="80" spans="1:13" ht="15.5">
       <c r="A80" s="14">
         <v>1041031</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.5" hidden="1">
+    <row r="81" spans="1:13" ht="15.5">
       <c r="A81" s="14">
         <v>1035031</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.5" hidden="1">
+    <row r="82" spans="1:13" ht="15.5">
       <c r="A82" s="14">
         <v>2598012</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.5" hidden="1">
+    <row r="83" spans="1:13" ht="15.5">
       <c r="A83" s="14">
         <v>1448004</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.5" hidden="1">
+    <row r="84" spans="1:13" ht="15.5">
       <c r="A84" s="14">
         <v>1119063</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.5" hidden="1">
+    <row r="85" spans="1:13" ht="15.5">
       <c r="A85" s="14">
         <v>2662063</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.5" hidden="1">
+    <row r="86" spans="1:13" ht="15.5">
       <c r="A86" s="14">
         <v>1161063</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.5" hidden="1">
+    <row r="87" spans="1:13" ht="15.5">
       <c r="A87" s="14">
         <v>1632038</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.5" hidden="1">
+    <row r="88" spans="1:13" ht="15.5">
       <c r="A88" s="14">
         <v>1629038</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.5" hidden="1">
+    <row r="89" spans="1:13" ht="15.5">
       <c r="A89" s="14">
         <v>1628038</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.5" hidden="1">
+    <row r="90" spans="1:13" ht="15.5">
       <c r="A90" s="14">
         <v>1219063</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.5" hidden="1">
+    <row r="91" spans="1:13" ht="15.5">
       <c r="A91" s="14">
         <v>3452004</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.5" hidden="1">
+    <row r="92" spans="1:13" ht="15.5">
       <c r="A92" s="14">
         <v>1620004</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.5" hidden="1">
+    <row r="93" spans="1:13" ht="15.5">
       <c r="A93" s="14">
         <v>1194063</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.5" hidden="1">
+    <row r="94" spans="1:13" ht="15.5">
       <c r="A94" s="14">
         <v>3154004</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.5" hidden="1">
+    <row r="95" spans="1:13" ht="15.5">
       <c r="A95" s="14">
         <v>1624004</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.5" hidden="1">
+    <row r="96" spans="1:13" ht="15.5">
       <c r="A96" s="14">
         <v>2975004</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.5" hidden="1">
+    <row r="97" spans="1:13" ht="15.5">
       <c r="A97" s="14">
         <v>3715004</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.5" hidden="1">
+    <row r="99" spans="1:13" ht="15.5">
       <c r="A99" s="14">
         <v>1584004</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.5" hidden="1">
+    <row r="100" spans="1:13" ht="15.5">
       <c r="A100" s="14">
         <v>1617173</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.5" hidden="1">
+    <row r="101" spans="1:13" ht="15.5">
       <c r="A101" s="14">
         <v>1631173</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.5" hidden="1">
+    <row r="102" spans="1:13" ht="15.5">
       <c r="A102" s="14">
         <v>1065002</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.5" hidden="1">
+    <row r="103" spans="1:13" ht="15.5">
       <c r="A103" s="14">
         <v>1709306</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.5" hidden="1">
+    <row r="104" spans="1:13" ht="15.5">
       <c r="A104" s="14">
         <v>1065306</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.5" hidden="1">
+    <row r="105" spans="1:13" ht="15.5">
       <c r="A105" s="14">
         <v>1208130</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.5" hidden="1">
+    <row r="106" spans="1:13" ht="15.5">
       <c r="A106" s="14">
         <v>1617172</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.5" hidden="1">
+    <row r="107" spans="1:13" ht="15.5">
       <c r="A107" s="14">
         <v>3878038</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.5" hidden="1">
+    <row r="108" spans="1:13" ht="15.5">
       <c r="A108" s="14">
         <v>3718038</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.5" hidden="1">
+    <row r="109" spans="1:13" ht="15.5">
       <c r="A109" s="14">
         <v>2662128</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.5" hidden="1">
+    <row r="110" spans="1:13" ht="15.5">
       <c r="A110" s="14">
         <v>3261128</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.5" hidden="1">
+    <row r="111" spans="1:13" ht="15.5">
       <c r="A111" s="14">
         <v>1161128</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.5" hidden="1">
+    <row r="112" spans="1:13" ht="15.5">
       <c r="A112" s="14">
         <v>1497038</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.5" hidden="1">
+    <row r="113" spans="1:13" ht="15.5">
       <c r="A113" s="14">
         <v>3849030</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.5" hidden="1">
+    <row r="115" spans="1:13" ht="15.5">
       <c r="A115" s="14">
         <v>1167128</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.5" hidden="1">
+    <row r="116" spans="1:13" ht="15.5">
       <c r="A116" s="14">
         <v>1497041</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.5" hidden="1">
+    <row r="117" spans="1:13" ht="15.5">
       <c r="A117" s="14">
         <v>1060041</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.5" hidden="1">
+    <row r="118" spans="1:13" ht="15.5">
       <c r="A118" s="14">
         <v>1595038</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.5" hidden="1">
+    <row r="119" spans="1:13" ht="15.5">
       <c r="A119" s="14">
         <v>1416038</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.5" hidden="1">
+    <row r="120" spans="1:13" ht="15.5">
       <c r="A120" s="14">
         <v>1425038</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.5" hidden="1">
+    <row r="121" spans="1:13" ht="15.5">
       <c r="A121" s="14">
         <v>1035042</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.5" hidden="1">
+    <row r="122" spans="1:13" ht="15.5">
       <c r="A122" s="14">
         <v>2597354</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.5" hidden="1">
+    <row r="123" spans="1:13" ht="15.5">
       <c r="A123" s="14">
         <v>1497042</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.5" hidden="1">
+    <row r="124" spans="1:13" ht="15.5">
       <c r="A124" s="14">
         <v>3879156</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.5" hidden="1">
+    <row r="125" spans="1:13" ht="15.5">
       <c r="A125" s="14">
         <v>3154156</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.5" hidden="1">
+    <row r="126" spans="1:13" ht="15.5">
       <c r="A126" s="14">
         <v>3715156</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.5" hidden="1">
+    <row r="127" spans="1:13" ht="15.5">
       <c r="A127" s="14">
         <v>3916042</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.5" hidden="1">
+    <row r="128" spans="1:13" ht="15.5">
       <c r="A128" s="14">
         <v>3919031</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.5" hidden="1">
+    <row r="129" spans="1:13" ht="15.5">
       <c r="A129" s="14">
         <v>3915042</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.5" hidden="1">
+    <row r="130" spans="1:13" ht="15.5">
       <c r="A130" s="14">
         <v>3168031</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.5" hidden="1">
+    <row r="131" spans="1:13" ht="15.5">
       <c r="A131" s="14">
         <v>1060042</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.5" hidden="1">
+    <row r="132" spans="1:13" ht="15.5">
       <c r="A132" s="14">
         <v>2341042</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.5" hidden="1">
+    <row r="133" spans="1:13" ht="15.5">
       <c r="A133" s="14">
         <v>3867427</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.5" hidden="1">
+    <row r="134" spans="1:13" ht="15.5">
       <c r="A134" s="14">
         <v>1465042</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.5" hidden="1">
+    <row r="135" spans="1:13" ht="15.5">
       <c r="A135" s="14">
         <v>3870427</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.5" hidden="1">
+    <row r="136" spans="1:13" ht="15.5">
       <c r="A136" s="14">
         <v>3866427</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.5" hidden="1">
+    <row r="137" spans="1:13" ht="15.5">
       <c r="A137" s="14">
         <v>1628224</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.5" hidden="1">
+    <row r="139" spans="1:13" ht="15.5">
       <c r="A139" s="14">
         <v>3839028</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.5" hidden="1">
+    <row r="140" spans="1:13" ht="15.5">
       <c r="A140" s="14">
         <v>1879172</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.5" hidden="1">
+    <row r="141" spans="1:13" ht="15.5">
       <c r="A141" s="14">
         <v>1879042</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.5" hidden="1">
+    <row r="142" spans="1:13" ht="15.5">
       <c r="A142" s="14">
         <v>3458038</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.5" hidden="1">
+    <row r="143" spans="1:13" ht="15.5">
       <c r="A143" s="14">
         <v>1709041</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.5" hidden="1">
+    <row r="144" spans="1:13" ht="15.5">
       <c r="A144" s="14">
         <v>2597033</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.5" hidden="1">
+    <row r="145" spans="1:13" ht="15.5">
       <c r="A145" s="14">
         <v>1629041</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.5" hidden="1">
+    <row r="146" spans="1:13" ht="15.5">
       <c r="A146" s="14">
         <v>1628041</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.5" hidden="1">
+    <row r="147" spans="1:13" ht="15.5">
       <c r="A147" s="14">
         <v>1489033</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.5" hidden="1">
+    <row r="148" spans="1:13" ht="15.5">
       <c r="A148" s="14">
         <v>1879041</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.5" hidden="1">
+    <row r="149" spans="1:13" ht="15.5">
       <c r="A149" s="14">
         <v>2109013</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.5" hidden="1">
+    <row r="150" spans="1:13" ht="15.5">
       <c r="A150" s="14">
         <v>1709033</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.5" hidden="1">
+    <row r="151" spans="1:13" ht="15.5">
       <c r="A151" s="14">
         <v>3915041</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.5" hidden="1">
+    <row r="152" spans="1:13" ht="15.5">
       <c r="A152" s="14">
         <v>1090005</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.5" hidden="1">
+    <row r="153" spans="1:13" ht="15.5">
       <c r="A153" s="14">
         <v>3667418</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.5" hidden="1">
+    <row r="154" spans="1:13" ht="15.5">
       <c r="A154" s="14">
         <v>1632033</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.5" hidden="1">
+    <row r="155" spans="1:13" ht="15.5">
       <c r="A155" s="14">
         <v>1629033</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.5" hidden="1">
+    <row r="156" spans="1:13" ht="15.5">
       <c r="A156" s="14">
         <v>1617041</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.5" hidden="1">
+    <row r="157" spans="1:13" ht="15.5">
       <c r="A157" s="14">
         <v>1628033</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.5" hidden="1">
+    <row r="158" spans="1:13" ht="15.5">
       <c r="A158" s="14">
         <v>1624033</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.5" hidden="1">
+    <row r="159" spans="1:13" ht="15.5">
       <c r="A159" s="14">
         <v>1602033</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.5" hidden="1">
+    <row r="160" spans="1:13" ht="15.5">
       <c r="A160" s="14">
         <v>2503033</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.5" hidden="1">
+    <row r="162" spans="1:13" ht="15.5">
       <c r="A162" s="14">
         <v>1585041</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.5" hidden="1">
+    <row r="164" spans="1:13" ht="15.5">
       <c r="A164" s="14">
         <v>3703041</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.5" hidden="1">
+    <row r="165" spans="1:13" ht="15.5">
       <c r="A165" s="14">
         <v>1065033</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.5" hidden="1">
+    <row r="166" spans="1:13" ht="15.5">
       <c r="A166" s="14">
         <v>2341041</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.5" hidden="1">
+    <row r="167" spans="1:13" ht="15.5">
       <c r="A167" s="14">
         <v>1046172</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.5" hidden="1">
+    <row r="168" spans="1:13" ht="15.5">
       <c r="A168" s="14">
         <v>1056100</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.5" hidden="1">
+    <row r="170" spans="1:13" ht="15.5">
       <c r="A170" s="14">
         <v>1709112</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.5" hidden="1">
+    <row r="171" spans="1:13" ht="15.5">
       <c r="A171" s="14">
         <v>1250013</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.5" hidden="1">
+    <row r="172" spans="1:13" ht="15.5">
       <c r="A172" s="14">
         <v>3879041</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.5" hidden="1">
+    <row r="173" spans="1:13" ht="15.5">
       <c r="A173" s="14">
         <v>3154041</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.5" hidden="1">
+    <row r="174" spans="1:13" ht="15.5">
       <c r="A174" s="14">
         <v>1143013</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.5" hidden="1">
+    <row r="175" spans="1:13" ht="15.5">
       <c r="A175" s="14">
         <v>1041172</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.5" hidden="1">
+    <row r="176" spans="1:13" ht="15.5">
       <c r="A176" s="14">
         <v>3916041</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.5" hidden="1">
+    <row r="177" spans="1:13" ht="15.5">
       <c r="A177" s="14">
         <v>3919033</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.5" hidden="1">
+    <row r="178" spans="1:13" ht="15.5">
       <c r="A178" s="14">
         <v>2598013</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.5" hidden="1">
+    <row r="179" spans="1:13" ht="15.5">
       <c r="A179" s="14">
         <v>1060172</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.5" hidden="1">
+    <row r="181" spans="1:13" ht="15.5">
       <c r="A181" s="14">
         <v>1065091</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.5" hidden="1">
+    <row r="182" spans="1:13" ht="15.5">
       <c r="A182" s="14">
         <v>3891482</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.5" hidden="1">
+    <row r="183" spans="1:13" ht="15.5">
       <c r="A183" s="14">
         <v>1873172</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.5" hidden="1">
+    <row r="185" spans="1:13" ht="15.5">
       <c r="A185" s="14">
         <v>3715041</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.5" hidden="1">
+    <row r="186" spans="1:13" ht="15.5">
       <c r="A186" s="14">
         <v>1599211</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.5" hidden="1">
+    <row r="187" spans="1:13" ht="15.5">
       <c r="A187" s="14">
         <v>1709211</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.5" hidden="1">
+    <row r="188" spans="1:13" ht="15.5">
       <c r="A188" s="14">
         <v>1496224</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.5" hidden="1">
+    <row r="189" spans="1:13" ht="15.5">
       <c r="A189" s="14">
         <v>1065211</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.5" hidden="1">
+    <row r="190" spans="1:13" ht="15.5">
       <c r="A190" s="14">
         <v>1363130</v>
       </c>
@@ -9038,13 +9038,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TBS - Licensee"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9071,6 +9064,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9325,15 +9327,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9346,6 +9339,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9364,14 +9365,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>

--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7723D4F6-A632-4E6A-B77F-EB0EB3408CA2}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62131F4D-22FA-4E72-A89A-9E537196FD15}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -9038,6 +9038,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9064,15 +9065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9327,6 +9319,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9339,14 +9340,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9365,6 +9358,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>

--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -1072,7 +1072,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -9065,6 +9065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9319,15 +9328,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9340,6 +9340,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9358,14 +9366,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>

--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62131F4D-22FA-4E72-A89A-9E537196FD15}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5679D52E-FCA5-4B5E-AA18-391091FB91E5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -1065,14 +1065,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R33" sqref="R33"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -1426,7 +1426,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5">
+    <row r="14" spans="1:13" ht="15.5" hidden="1">
       <c r="A14" s="14">
         <v>1143013</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5">
+    <row r="15" spans="1:13" ht="15.5" hidden="1">
       <c r="A15" s="14">
         <v>3891013</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.5">
+    <row r="33" spans="1:13" ht="15.5" hidden="1">
       <c r="A33" s="14">
         <v>1584041</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.5">
+    <row r="35" spans="1:13" ht="15.5" hidden="1">
       <c r="A35" s="14">
         <v>2022041</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.5">
+    <row r="98" spans="1:13" ht="15.5" hidden="1">
       <c r="A98" s="14">
         <v>1584004</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.5">
+    <row r="114" spans="1:13" ht="15.5" hidden="1">
       <c r="A114" s="14">
         <v>1065033</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.5">
+    <row r="138" spans="1:13" ht="15.5" hidden="1">
       <c r="A138" s="14">
         <v>3839028</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.5">
+    <row r="161" spans="1:13" ht="15.5" hidden="1">
       <c r="A161" s="14">
         <v>1585041</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.5">
+    <row r="163" spans="1:13" ht="15.5" hidden="1">
       <c r="A163" s="14">
         <v>3703041</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.5">
+    <row r="169" spans="1:13" ht="15.5" hidden="1">
       <c r="A169" s="14">
         <v>2109048</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.5">
+    <row r="180" spans="1:13" ht="15.5" hidden="1">
       <c r="A180" s="14">
         <v>1065091</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.5">
+    <row r="184" spans="1:13" ht="15.5" hidden="1">
       <c r="A184" s="14">
         <v>1933621</v>
       </c>
@@ -9038,7 +9038,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}"/>
+  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="TBS - Retail Price"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9065,12 +9071,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9329,20 +9337,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
+    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9367,12 +9376,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
-    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5679D52E-FCA5-4B5E-AA18-391091FB91E5}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F7EA6C-B328-4CB5-82C5-3F604336E2B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -1065,14 +1065,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-  <sheetPr codeName="Sheet4" filterMode="1">
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="8" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8:H190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -1426,7 +1426,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5" hidden="1">
+    <row r="14" spans="1:13" ht="15.5">
       <c r="A14" s="14">
         <v>1143013</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5" hidden="1">
+    <row r="15" spans="1:13" ht="15.5">
       <c r="A15" s="14">
         <v>3891013</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.5" hidden="1">
+    <row r="33" spans="1:13" ht="15.5">
       <c r="A33" s="14">
         <v>1584041</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.5" hidden="1">
+    <row r="35" spans="1:13" ht="15.5">
       <c r="A35" s="14">
         <v>2022041</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.5" hidden="1">
+    <row r="98" spans="1:13" ht="15.5">
       <c r="A98" s="14">
         <v>1584004</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.5" hidden="1">
+    <row r="114" spans="1:13" ht="15.5">
       <c r="A114" s="14">
         <v>1065033</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.5" hidden="1">
+    <row r="138" spans="1:13" ht="15.5">
       <c r="A138" s="14">
         <v>3839028</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.5" hidden="1">
+    <row r="161" spans="1:13" ht="15.5">
       <c r="A161" s="14">
         <v>1585041</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.5" hidden="1">
+    <row r="163" spans="1:13" ht="15.5">
       <c r="A163" s="14">
         <v>3703041</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.5" hidden="1">
+    <row r="169" spans="1:13" ht="15.5">
       <c r="A169" s="14">
         <v>2109048</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.5" hidden="1">
+    <row r="180" spans="1:13" ht="15.5">
       <c r="A180" s="14">
         <v>1065091</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.5" hidden="1">
+    <row r="184" spans="1:13" ht="15.5">
       <c r="A184" s="14">
         <v>1933621</v>
       </c>
@@ -9038,13 +9038,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="TBS - Retail Price"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9071,17 +9065,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9336,6 +9319,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9346,17 +9340,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
-    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9375,6 +9358,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
+    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
   <ds:schemaRefs>

--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6F7EA6C-B328-4CB5-82C5-3F604336E2B4}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB2FFDE-64DC-4C6B-863B-E9AB57A8D692}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
@@ -1071,8 +1071,8 @@
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8:H190"/>
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
@@ -9320,6 +9320,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
@@ -9328,15 +9337,6 @@
     <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9359,6 +9359,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9367,12 +9375,4 @@
     <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BB2FFDE-64DC-4C6B-863B-E9AB57A8D692}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5444574F-4B91-44EC-AD11-EBB797B24D36}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
+    <workbookView xWindow="-14775" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Change Summary Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Change Summary Report'!$A$8:$L$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Price Change Summary Report'!$A$8:$M$190</definedName>
     <definedName name="DF_NAVPANEL_13" localSheetId="0">#REF!</definedName>
     <definedName name="DF_NAVPANEL_18" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Price Change Summary Report'!$8:$8</definedName>
@@ -514,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,7 +745,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>591342</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4222</xdr:rowOff>
+      <xdr:rowOff>10572</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1071,11 +1071,11 @@
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="8" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
@@ -1090,13 +1090,13 @@
     <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="21">
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1111,7 +1111,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5">
+    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1126,7 +1126,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="14.5">
+    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.5">
+    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1154,7 +1154,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="14.5">
+    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1167,13 +1167,13 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="31">
+    <row r="8" spans="1:13" ht="31" x14ac:dyDescent="0.2">
       <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5">
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>1065365</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5">
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>1129130</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5">
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>2042611</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5">
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>3353211</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5">
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>2503211</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5">
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>1143013</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5">
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>3891013</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5">
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>1617224</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5">
+    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>1035172</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5">
+    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>3891013</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5">
+    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>1465033</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.5">
+    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>3583348</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.5">
+    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>3582348</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5">
+    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>1504172</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5">
+    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>2341172</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5">
+    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>3353033</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5">
+    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>3879042</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5">
+    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>3154042</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.5">
+    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>3715042</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5">
+    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>1090033</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5">
+    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>1060100</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5">
+    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>1879055</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5">
+    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>1873005</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5">
+    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
         <v>1599033</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.5">
+    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
         <v>1584041</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.5">
+    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
         <v>1584041</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.5">
+    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
         <v>2022041</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.5">
+    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
         <v>2022041</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.5">
+    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
         <v>1065356</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5">
+    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
         <v>1448041</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5">
+    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
         <v>2042051</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5">
+    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="14">
         <v>1319055</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5">
+    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="14">
         <v>1045172</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5">
+    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="14">
         <v>1026100</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5">
+    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="14">
         <v>1030172</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5">
+    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14">
         <v>1056172</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5">
+    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14">
         <v>1628172</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5">
+    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="14">
         <v>1490005</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5">
+    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="14">
         <v>3353031</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5">
+    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14">
         <v>3888033</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5">
+    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="14">
         <v>1041042</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5">
+    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14">
         <v>2598042</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5">
+    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="14">
         <v>3666031</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5">
+    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="14">
         <v>3654427</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5">
+    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="14">
         <v>1056042</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5">
+    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="14">
         <v>3668427</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5">
+    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="14">
         <v>1595031</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5">
+    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="14">
         <v>1594031</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5">
+    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="14">
         <v>3962031</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5">
+    <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="14">
         <v>1491223</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5">
+    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="14">
         <v>1491042</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5">
+    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="14">
         <v>3410031</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5">
+    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="14">
         <v>2042291</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5">
+    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="14">
         <v>1056041</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5">
+    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="14">
         <v>1491041</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5">
+    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="14">
         <v>1525038</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.5">
+    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="14">
         <v>3879038</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.5">
+    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="14">
         <v>3154038</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.5">
+    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="14">
         <v>3715038</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.5">
+    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="14">
         <v>3775038</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.5">
+    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="14">
         <v>1628031</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.5">
+    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="14">
         <v>1491038</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.5">
+    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="14">
         <v>1448038</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.5">
+    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="14">
         <v>2042290</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.5">
+    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="14">
         <v>3537296</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.5">
+    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="14">
         <v>2042024</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.5">
+    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="14">
         <v>2084100</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.5">
+    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="14">
         <v>2085100</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.5">
+    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="14">
         <v>2597355</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.5">
+    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="14">
         <v>1629042</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.5">
+    <row r="79" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="14">
         <v>1628042</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.5">
+    <row r="80" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="14">
         <v>1041031</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.5">
+    <row r="81" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="14">
         <v>1035031</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.5">
+    <row r="82" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="14">
         <v>2598012</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.5">
+    <row r="83" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="14">
         <v>1448004</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.5">
+    <row r="84" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="14">
         <v>1119063</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.5">
+    <row r="85" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="14">
         <v>2662063</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.5">
+    <row r="86" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="14">
         <v>1161063</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.5">
+    <row r="87" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="14">
         <v>1632038</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.5">
+    <row r="88" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="14">
         <v>1629038</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.5">
+    <row r="89" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="14">
         <v>1628038</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.5">
+    <row r="90" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="14">
         <v>1219063</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.5">
+    <row r="91" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="14">
         <v>3452004</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.5">
+    <row r="92" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="14">
         <v>1620004</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.5">
+    <row r="93" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="14">
         <v>1194063</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.5">
+    <row r="94" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="14">
         <v>3154004</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.5">
+    <row r="95" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="14">
         <v>1624004</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.5">
+    <row r="96" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="14">
         <v>2975004</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.5">
+    <row r="97" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="14">
         <v>3715004</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.5">
+    <row r="98" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="14">
         <v>1584004</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.5">
+    <row r="99" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="14">
         <v>1584004</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.5">
+    <row r="100" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="14">
         <v>1617173</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.5">
+    <row r="101" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="14">
         <v>1631173</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.5">
+    <row r="102" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="14">
         <v>1065002</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.5">
+    <row r="103" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="14">
         <v>1709306</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.5">
+    <row r="104" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="14">
         <v>1065306</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.5">
+    <row r="105" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="14">
         <v>1208130</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.5">
+    <row r="106" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="14">
         <v>1617172</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.5">
+    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="14">
         <v>3878038</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.5">
+    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="14">
         <v>3718038</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.5">
+    <row r="109" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="14">
         <v>2662128</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.5">
+    <row r="110" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="14">
         <v>3261128</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.5">
+    <row r="111" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="14">
         <v>1161128</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.5">
+    <row r="112" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="14">
         <v>1497038</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.5">
+    <row r="113" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="14">
         <v>3849030</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.5">
+    <row r="114" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="14">
         <v>1065033</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.5">
+    <row r="115" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="14">
         <v>1167128</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.5">
+    <row r="116" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="14">
         <v>1497041</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.5">
+    <row r="117" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="14">
         <v>1060041</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.5">
+    <row r="118" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="14">
         <v>1595038</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.5">
+    <row r="119" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="14">
         <v>1416038</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.5">
+    <row r="120" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="14">
         <v>1425038</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.5">
+    <row r="121" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="14">
         <v>1035042</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.5">
+    <row r="122" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="14">
         <v>2597354</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.5">
+    <row r="123" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="14">
         <v>1497042</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.5">
+    <row r="124" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="14">
         <v>3879156</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.5">
+    <row r="125" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="14">
         <v>3154156</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.5">
+    <row r="126" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="14">
         <v>3715156</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.5">
+    <row r="127" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="14">
         <v>3916042</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.5">
+    <row r="128" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="14">
         <v>3919031</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.5">
+    <row r="129" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="14">
         <v>3915042</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.5">
+    <row r="130" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="14">
         <v>3168031</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.5">
+    <row r="131" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="14">
         <v>1060042</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.5">
+    <row r="132" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="14">
         <v>2341042</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.5">
+    <row r="133" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="14">
         <v>3867427</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.5">
+    <row r="134" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="14">
         <v>1465042</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.5">
+    <row r="135" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="14">
         <v>3870427</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.5">
+    <row r="136" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="14">
         <v>3866427</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.5">
+    <row r="137" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="14">
         <v>1628224</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.5">
+    <row r="138" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="14">
         <v>3839028</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.5">
+    <row r="139" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="14">
         <v>3839028</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.5">
+    <row r="140" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="14">
         <v>1879172</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.5">
+    <row r="141" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="14">
         <v>1879042</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.5">
+    <row r="142" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="14">
         <v>3458038</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.5">
+    <row r="143" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="14">
         <v>1709041</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.5">
+    <row r="144" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="14">
         <v>2597033</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.5">
+    <row r="145" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="14">
         <v>1629041</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.5">
+    <row r="146" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="14">
         <v>1628041</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.5">
+    <row r="147" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="14">
         <v>1489033</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.5">
+    <row r="148" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="14">
         <v>1879041</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.5">
+    <row r="149" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="14">
         <v>2109013</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.5">
+    <row r="150" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="14">
         <v>1709033</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.5">
+    <row r="151" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="14">
         <v>3915041</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.5">
+    <row r="152" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="14">
         <v>1090005</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.5">
+    <row r="153" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="14">
         <v>3667418</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.5">
+    <row r="154" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="14">
         <v>1632033</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.5">
+    <row r="155" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="14">
         <v>1629033</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.5">
+    <row r="156" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="14">
         <v>1617041</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.5">
+    <row r="157" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="14">
         <v>1628033</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.5">
+    <row r="158" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="14">
         <v>1624033</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.5">
+    <row r="159" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="14">
         <v>1602033</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.5">
+    <row r="160" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="14">
         <v>2503033</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.5">
+    <row r="161" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="14">
         <v>1585041</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.5">
+    <row r="162" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="14">
         <v>1585041</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.5">
+    <row r="163" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="14">
         <v>3703041</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.5">
+    <row r="164" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="14">
         <v>3703041</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.5">
+    <row r="165" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="14">
         <v>1065033</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.5">
+    <row r="166" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="14">
         <v>2341041</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.5">
+    <row r="167" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="14">
         <v>1046172</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.5">
+    <row r="168" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="14">
         <v>1056100</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.5">
+    <row r="169" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="14">
         <v>2109048</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.5">
+    <row r="170" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="14">
         <v>1709112</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.5">
+    <row r="171" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="14">
         <v>1250013</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.5">
+    <row r="172" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="14">
         <v>3879041</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.5">
+    <row r="173" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="14">
         <v>3154041</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.5">
+    <row r="174" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="14">
         <v>1143013</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.5">
+    <row r="175" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="14">
         <v>1041172</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.5">
+    <row r="176" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="14">
         <v>3916041</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.5">
+    <row r="177" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="14">
         <v>3919033</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.5">
+    <row r="178" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="14">
         <v>2598013</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.5">
+    <row r="179" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="14">
         <v>1060172</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.5">
+    <row r="180" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="14">
         <v>1065091</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.5">
+    <row r="181" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="14">
         <v>1065091</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.5">
+    <row r="182" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="14">
         <v>3891482</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.5">
+    <row r="183" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="14">
         <v>1873172</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.5">
+    <row r="184" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="14">
         <v>1933621</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.5">
+    <row r="185" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="14">
         <v>3715041</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.5">
+    <row r="186" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="14">
         <v>1599211</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.5">
+    <row r="187" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="14">
         <v>1709211</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.5">
+    <row r="188" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="14">
         <v>1496224</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.5">
+    <row r="189" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="14">
         <v>1065211</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.5">
+    <row r="190" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="14">
         <v>1363130</v>
       </c>
@@ -9038,7 +9038,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:L190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}"/>
+  <autoFilter ref="A8:M190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9065,6 +9065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9319,15 +9328,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9340,6 +9340,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9358,21 +9366,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
-    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
+++ b/data/input/TBS Price Change Summary Report - October 13th'25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/aaditya_singhal_anheuser-busch_com/Documents/FY25/Personal git repo/RevMan-POC-Crew/revman/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5444574F-4B91-44EC-AD11-EBB797B24D36}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{0AA89260-8720-4988-BC56-22AC02704366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5994290E-5439-4D97-BFCA-D56C90A9A1C1}"/>
   <bookViews>
-    <workbookView xWindow="-14775" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6A2125F1-4E47-4331-8639-117622155337}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Change Summary Report" sheetId="1" r:id="rId1"/>
@@ -514,7 +514,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,17 +1065,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
-  <sheetPr codeName="Sheet4">
+  <sheetPr codeName="Sheet4" filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M190"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="8" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J177" sqref="J177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="10"/>
   <cols>
     <col min="1" max="1" width="13.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="22" style="3" bestFit="1" customWidth="1"/>
@@ -1090,13 +1090,13 @@
     <col min="12" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" ht="21">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1111,7 +1111,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.5">
       <c r="A3" s="5"/>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -1126,7 +1126,7 @@
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="14.5">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1141,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="14.5">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1154,7 +1154,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
-    <row r="6" spans="1:13" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="14.5">
       <c r="A6" s="5"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1167,13 +1167,13 @@
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="31">
       <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="15.5" hidden="1">
       <c r="A9" s="14">
         <v>1065365</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="15.5" hidden="1">
       <c r="A10" s="14">
         <v>1129130</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="15.5" hidden="1">
       <c r="A11" s="14">
         <v>2042611</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="15.5" hidden="1">
       <c r="A12" s="14">
         <v>3353211</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="15.5" hidden="1">
       <c r="A13" s="14">
         <v>2503211</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="15.5" hidden="1">
       <c r="A14" s="14">
         <v>1143013</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="15.5" hidden="1">
       <c r="A15" s="14">
         <v>3891013</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="15.5" hidden="1">
       <c r="A16" s="14">
         <v>1617224</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.5" hidden="1">
       <c r="A17" s="14">
         <v>1035172</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.5" hidden="1">
       <c r="A18" s="14">
         <v>3891013</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.5" hidden="1">
       <c r="A19" s="14">
         <v>1465033</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.5" hidden="1">
       <c r="A20" s="14">
         <v>3583348</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.5" hidden="1">
       <c r="A21" s="14">
         <v>3582348</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.5" hidden="1">
       <c r="A22" s="14">
         <v>1504172</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.5" hidden="1">
       <c r="A23" s="14">
         <v>2341172</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.5" hidden="1">
       <c r="A24" s="14">
         <v>3353033</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.5" hidden="1">
       <c r="A25" s="14">
         <v>3879042</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.5" hidden="1">
       <c r="A26" s="14">
         <v>3154042</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.5" hidden="1">
       <c r="A27" s="14">
         <v>3715042</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="15.5" hidden="1">
       <c r="A28" s="14">
         <v>1090033</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.5" hidden="1">
       <c r="A29" s="14">
         <v>1060100</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15.5" hidden="1">
       <c r="A30" s="14">
         <v>1879055</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="15.5" hidden="1">
       <c r="A31" s="14">
         <v>1873005</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="15.5" hidden="1">
       <c r="A32" s="14">
         <v>1599033</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="15.5" hidden="1">
       <c r="A33" s="14">
         <v>1584041</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="15.5" hidden="1">
       <c r="A34" s="14">
         <v>1584041</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="15.5" hidden="1">
       <c r="A35" s="14">
         <v>2022041</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="15.5" hidden="1">
       <c r="A36" s="14">
         <v>2022041</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="15.5" hidden="1">
       <c r="A37" s="14">
         <v>1065356</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="15.5" hidden="1">
       <c r="A38" s="14">
         <v>1448041</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" ht="15.5" hidden="1">
       <c r="A39" s="14">
         <v>2042051</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="15.5" hidden="1">
       <c r="A40" s="14">
         <v>1319055</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" ht="15.5" hidden="1">
       <c r="A41" s="14">
         <v>1045172</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" ht="15.5" hidden="1">
       <c r="A42" s="14">
         <v>1026100</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" ht="15.5" hidden="1">
       <c r="A43" s="14">
         <v>1030172</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="15.5" hidden="1">
       <c r="A44" s="14">
         <v>1056172</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15.5" hidden="1">
       <c r="A45" s="14">
         <v>1628172</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" ht="15.5" hidden="1">
       <c r="A46" s="14">
         <v>1490005</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="15.5" hidden="1">
       <c r="A47" s="14">
         <v>3353031</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="15.5" hidden="1">
       <c r="A48" s="14">
         <v>3888033</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" ht="15.5" hidden="1">
       <c r="A49" s="14">
         <v>1041042</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="15.5" hidden="1">
       <c r="A50" s="14">
         <v>2598042</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15.5" hidden="1">
       <c r="A51" s="14">
         <v>3666031</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" ht="15.5" hidden="1">
       <c r="A52" s="14">
         <v>3654427</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" ht="15.5" hidden="1">
       <c r="A53" s="14">
         <v>1056042</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" ht="15.5" hidden="1">
       <c r="A54" s="14">
         <v>3668427</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" ht="15.5" hidden="1">
       <c r="A55" s="14">
         <v>1595031</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" ht="15.5" hidden="1">
       <c r="A56" s="14">
         <v>1594031</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" ht="15.5" hidden="1">
       <c r="A57" s="14">
         <v>3962031</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" ht="15.5" hidden="1">
       <c r="A58" s="14">
         <v>1491223</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" ht="15.5" hidden="1">
       <c r="A59" s="14">
         <v>1491042</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" ht="15.5" hidden="1">
       <c r="A60" s="14">
         <v>3410031</v>
       </c>
@@ -3447,7 +3447,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" ht="15.5" hidden="1">
       <c r="A61" s="14">
         <v>2042291</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" ht="15.5" hidden="1">
       <c r="A62" s="14">
         <v>1056041</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" ht="15.5" hidden="1">
       <c r="A63" s="14">
         <v>1491041</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" ht="15.5" hidden="1">
       <c r="A64" s="14">
         <v>1525038</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" ht="15.5" hidden="1">
       <c r="A65" s="14">
         <v>3879038</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" ht="15.5" hidden="1">
       <c r="A66" s="14">
         <v>3154038</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" ht="15.5" hidden="1">
       <c r="A67" s="14">
         <v>3715038</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" ht="15.5" hidden="1">
       <c r="A68" s="14">
         <v>3775038</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" ht="15.5" hidden="1">
       <c r="A69" s="14">
         <v>1628031</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" ht="15.5" hidden="1">
       <c r="A70" s="14">
         <v>1491038</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="15.5" hidden="1">
       <c r="A71" s="14">
         <v>1448038</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" ht="15.5" hidden="1">
       <c r="A72" s="14">
         <v>2042290</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" ht="15.5" hidden="1">
       <c r="A73" s="14">
         <v>3537296</v>
       </c>
@@ -4006,7 +4006,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="15.5" hidden="1">
       <c r="A74" s="14">
         <v>2042024</v>
       </c>
@@ -4049,7 +4049,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" ht="15.5" hidden="1">
       <c r="A75" s="14">
         <v>2084100</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" ht="15.5" hidden="1">
       <c r="A76" s="14">
         <v>2085100</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" ht="15.5" hidden="1">
       <c r="A77" s="14">
         <v>2597355</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" ht="15.5" hidden="1">
       <c r="A78" s="14">
         <v>1629042</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" ht="15.5" hidden="1">
       <c r="A79" s="14">
         <v>1628042</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" ht="15.5" hidden="1">
       <c r="A80" s="14">
         <v>1041031</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" ht="15.5" hidden="1">
       <c r="A81" s="14">
         <v>1035031</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" ht="15.5" hidden="1">
       <c r="A82" s="14">
         <v>2598012</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" ht="15.5" hidden="1">
       <c r="A83" s="14">
         <v>1448004</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" ht="15.5" hidden="1">
       <c r="A84" s="14">
         <v>1119063</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" ht="15.5" hidden="1">
       <c r="A85" s="14">
         <v>2662063</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" ht="15.5" hidden="1">
       <c r="A86" s="14">
         <v>1161063</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" ht="15.5" hidden="1">
       <c r="A87" s="14">
         <v>1632038</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" ht="15.5" hidden="1">
       <c r="A88" s="14">
         <v>1629038</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" ht="15.5" hidden="1">
       <c r="A89" s="14">
         <v>1628038</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" ht="15.5" hidden="1">
       <c r="A90" s="14">
         <v>1219063</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" ht="15.5" hidden="1">
       <c r="A91" s="14">
         <v>3452004</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" ht="15.5" hidden="1">
       <c r="A92" s="14">
         <v>1620004</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" ht="15.5" hidden="1">
       <c r="A93" s="14">
         <v>1194063</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" ht="15.5" hidden="1">
       <c r="A94" s="14">
         <v>3154004</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" ht="15.5" hidden="1">
       <c r="A95" s="14">
         <v>1624004</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" ht="15.5" hidden="1">
       <c r="A96" s="14">
         <v>2975004</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" ht="15.5" hidden="1">
       <c r="A97" s="14">
         <v>3715004</v>
       </c>
@@ -5038,7 +5038,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" ht="15.5" hidden="1">
       <c r="A98" s="14">
         <v>1584004</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" ht="15.5" hidden="1">
       <c r="A99" s="14">
         <v>1584004</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" ht="15.5" hidden="1">
       <c r="A100" s="14">
         <v>1617173</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" ht="15.5" hidden="1">
       <c r="A101" s="14">
         <v>1631173</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" ht="15.5" hidden="1">
       <c r="A102" s="14">
         <v>1065002</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" ht="15.5" hidden="1">
       <c r="A103" s="14">
         <v>1709306</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" ht="15.5" hidden="1">
       <c r="A104" s="14">
         <v>1065306</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" ht="15.5" hidden="1">
       <c r="A105" s="14">
         <v>1208130</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" ht="15.5" hidden="1">
       <c r="A106" s="14">
         <v>1617172</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" ht="15.5" hidden="1">
       <c r="A107" s="14">
         <v>3878038</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" ht="15.5" hidden="1">
       <c r="A108" s="14">
         <v>3718038</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" ht="15.5" hidden="1">
       <c r="A109" s="14">
         <v>2662128</v>
       </c>
@@ -5554,7 +5554,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" ht="15.5" hidden="1">
       <c r="A110" s="14">
         <v>3261128</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" ht="15.5" hidden="1">
       <c r="A111" s="14">
         <v>1161128</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" ht="15.5" hidden="1">
       <c r="A112" s="14">
         <v>1497038</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" ht="15.5" hidden="1">
       <c r="A113" s="14">
         <v>3849030</v>
       </c>
@@ -5726,7 +5726,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" ht="15.5" hidden="1">
       <c r="A114" s="14">
         <v>1065033</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" ht="15.5" hidden="1">
       <c r="A115" s="14">
         <v>1167128</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" ht="15.5" hidden="1">
       <c r="A116" s="14">
         <v>1497041</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" ht="15.5" hidden="1">
       <c r="A117" s="14">
         <v>1060041</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" ht="15.5" hidden="1">
       <c r="A118" s="14">
         <v>1595038</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" ht="15.5" hidden="1">
       <c r="A119" s="14">
         <v>1416038</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" ht="15.5" hidden="1">
       <c r="A120" s="14">
         <v>1425038</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" ht="15.5" hidden="1">
       <c r="A121" s="14">
         <v>1035042</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" ht="15.5" hidden="1">
       <c r="A122" s="14">
         <v>2597354</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" ht="15.5" hidden="1">
       <c r="A123" s="14">
         <v>1497042</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" ht="15.5" hidden="1">
       <c r="A124" s="14">
         <v>3879156</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" ht="15.5" hidden="1">
       <c r="A125" s="14">
         <v>3154156</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" ht="15.5" hidden="1">
       <c r="A126" s="14">
         <v>3715156</v>
       </c>
@@ -6285,7 +6285,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" ht="15.5" hidden="1">
       <c r="A127" s="14">
         <v>3916042</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" ht="15.5">
       <c r="A128" s="14">
         <v>3919031</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" ht="15.5" hidden="1">
       <c r="A129" s="14">
         <v>3915042</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" ht="15.5" hidden="1">
       <c r="A130" s="14">
         <v>3168031</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" ht="15.5" hidden="1">
       <c r="A131" s="14">
         <v>1060042</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" ht="15.5" hidden="1">
       <c r="A132" s="14">
         <v>2341042</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" ht="15.5" hidden="1">
       <c r="A133" s="14">
         <v>3867427</v>
       </c>
@@ -6586,7 +6586,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" ht="15.5" hidden="1">
       <c r="A134" s="14">
         <v>1465042</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" ht="15.5" hidden="1">
       <c r="A135" s="14">
         <v>3870427</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" ht="15.5" hidden="1">
       <c r="A136" s="14">
         <v>3866427</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" ht="15.5" hidden="1">
       <c r="A137" s="14">
         <v>1628224</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" ht="15.5" hidden="1">
       <c r="A138" s="14">
         <v>3839028</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" ht="15.5" hidden="1">
       <c r="A139" s="14">
         <v>3839028</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" ht="15.5" hidden="1">
       <c r="A140" s="14">
         <v>1879172</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" ht="15.5" hidden="1">
       <c r="A141" s="14">
         <v>1879042</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" ht="15.5" hidden="1">
       <c r="A142" s="14">
         <v>3458038</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" ht="15.5" hidden="1">
       <c r="A143" s="14">
         <v>1709041</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" ht="15.5" hidden="1">
       <c r="A144" s="14">
         <v>2597033</v>
       </c>
@@ -7059,7 +7059,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" ht="15.5" hidden="1">
       <c r="A145" s="14">
         <v>1629041</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" ht="15.5" hidden="1">
       <c r="A146" s="14">
         <v>1628041</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" ht="15.5" hidden="1">
       <c r="A147" s="14">
         <v>1489033</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" ht="15.5" hidden="1">
       <c r="A148" s="14">
         <v>1879041</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:13" ht="15.5" hidden="1">
       <c r="A149" s="14">
         <v>2109013</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:13" ht="15.5" hidden="1">
       <c r="A150" s="14">
         <v>1709033</v>
       </c>
@@ -7317,7 +7317,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:13" ht="15.5" hidden="1">
       <c r="A151" s="14">
         <v>3915041</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:13" ht="15.5" hidden="1">
       <c r="A152" s="14">
         <v>1090005</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:13" ht="15.5" hidden="1">
       <c r="A153" s="14">
         <v>3667418</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:13" ht="15.5" hidden="1">
       <c r="A154" s="14">
         <v>1632033</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:13" ht="15.5" hidden="1">
       <c r="A155" s="14">
         <v>1629033</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:13" ht="15.5" hidden="1">
       <c r="A156" s="14">
         <v>1617041</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:13" ht="15.5" hidden="1">
       <c r="A157" s="14">
         <v>1628033</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:13" ht="15.5" hidden="1">
       <c r="A158" s="14">
         <v>1624033</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:13" ht="15.5" hidden="1">
       <c r="A159" s="14">
         <v>1602033</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:13" ht="15.5" hidden="1">
       <c r="A160" s="14">
         <v>2503033</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:13" ht="15.5" hidden="1">
       <c r="A161" s="14">
         <v>1585041</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:13" ht="15.5" hidden="1">
       <c r="A162" s="14">
         <v>1585041</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:13" ht="15.5" hidden="1">
       <c r="A163" s="14">
         <v>3703041</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:13" ht="15.5" hidden="1">
       <c r="A164" s="14">
         <v>3703041</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:13" ht="15.5" hidden="1">
       <c r="A165" s="14">
         <v>1065033</v>
       </c>
@@ -7962,7 +7962,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:13" ht="15.5" hidden="1">
       <c r="A166" s="14">
         <v>2341041</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:13" ht="15.5" hidden="1">
       <c r="A167" s="14">
         <v>1046172</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:13" ht="15.5" hidden="1">
       <c r="A168" s="14">
         <v>1056100</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:13" ht="15.5" hidden="1">
       <c r="A169" s="14">
         <v>2109048</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:13" ht="15.5" hidden="1">
       <c r="A170" s="14">
         <v>1709112</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:13" ht="15.5" hidden="1">
       <c r="A171" s="14">
         <v>1250013</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:13" ht="15.5" hidden="1">
       <c r="A172" s="14">
         <v>3879041</v>
       </c>
@@ -8263,7 +8263,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:13" ht="15.5" hidden="1">
       <c r="A173" s="14">
         <v>3154041</v>
       </c>
@@ -8306,7 +8306,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:13" ht="15.5" hidden="1">
       <c r="A174" s="14">
         <v>1143013</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:13" ht="15.5" hidden="1">
       <c r="A175" s="14">
         <v>1041172</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:13" ht="15.5" hidden="1">
       <c r="A176" s="14">
         <v>3916041</v>
       </c>
@@ -8435,7 +8435,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:13" ht="15.5">
       <c r="A177" s="14">
         <v>3919033</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:13" ht="15.5" hidden="1">
       <c r="A178" s="14">
         <v>2598013</v>
       </c>
@@ -8521,7 +8521,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:13" ht="15.5" hidden="1">
       <c r="A179" s="14">
         <v>1060172</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:13" ht="15.5" hidden="1">
       <c r="A180" s="14">
         <v>1065091</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:13" ht="15.5" hidden="1">
       <c r="A181" s="14">
         <v>1065091</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:13" ht="15.5" hidden="1">
       <c r="A182" s="14">
         <v>3891482</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:13" ht="15.5" hidden="1">
       <c r="A183" s="14">
         <v>1873172</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:13" ht="15.5" hidden="1">
       <c r="A184" s="14">
         <v>1933621</v>
       </c>
@@ -8779,7 +8779,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:13" ht="15.5" hidden="1">
       <c r="A185" s="14">
         <v>3715041</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:13" ht="15.5" hidden="1">
       <c r="A186" s="14">
         <v>1599211</v>
       </c>
@@ -8865,7 +8865,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:13" ht="15.5" hidden="1">
       <c r="A187" s="14">
         <v>1709211</v>
       </c>
@@ -8908,7 +8908,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:13" ht="15.5" hidden="1">
       <c r="A188" s="14">
         <v>1496224</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:13" ht="15.5" hidden="1">
       <c r="A189" s="14">
         <v>1065211</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>+</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:13" ht="15.5" hidden="1">
       <c r="A190" s="14">
         <v>1363130</v>
       </c>
@@ -9038,7 +9038,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:M190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}"/>
+  <autoFilter ref="A8:M190" xr:uid="{F88453A7-FECA-4927-826D-F01BE31EC038}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BUD LIGHT LIME TIME"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:K190">
     <sortCondition ref="C9:C190"/>
     <sortCondition ref="D9:D190"/>
@@ -9074,6 +9080,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003BD24DCF8EBA2A459A3767B75ECBC810" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="14ba1abd425e7d287f53e65cd7fdc17f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d19c67b-01ac-4d4b-a843-fb81d321b596" xmlns:ns3="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f877f0b356da1ae16043b73a66e5efc3" ns2:_="" ns3:_="">
     <xsd:import namespace="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
@@ -9328,17 +9345,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4d19c67b-01ac-4d4b-a843-fb81d321b596">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6dca17fb-ac11-4cf8-b45b-b93bf268ff03" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B6DF62D-6E20-4488-8172-8E2FED293569}">
   <ds:schemaRefs>
@@ -9348,6 +9354,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{663EA9A2-C52A-4722-944D-0B4351AA8E9D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9364,21 +9387,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E560CAD-3D0D-4622-8ACC-0E2F5560BCED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6dca17fb-ac11-4cf8-b45b-b93bf268ff03"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d19c67b-01ac-4d4b-a843-fb81d321b596"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>